--- a/Gastos Socios Symbiot.xlsx
+++ b/Gastos Socios Symbiot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\symbiot\symbiot_finance_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9EECBC-ED61-4267-AFD9-1148193742B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB88F87-CCEC-4994-BEBA-42DAF7CA20D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" tabRatio="773" activeTab="2" xr2:uid="{9089598D-A971-4695-A3E9-38E00D99589C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" tabRatio="773" activeTab="1" xr2:uid="{9089598D-A971-4695-A3E9-38E00D99589C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos Symbiot" sheetId="11" r:id="rId1"/>
@@ -2880,27 +2880,6 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0;[Red]#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -2941,6 +2920,27 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="#,##0;[Red]#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -18032,6 +18032,681 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8A3BFAB-FC5E-43A6-8CF5-E0F2F569B261}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A61:D71" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="15" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Suma de Noviembre3" fld="45" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="20">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0FFE308-1BD4-44FF-A072-2E4430C91117}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A75:D82" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="15" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Alumno" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="24">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36B00CA7-DB1E-4E6F-A153-B286F31CD045}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A47:D57" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="15"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Estatus" fld="15" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="27">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="15" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E247F413-26A1-461C-B7BB-658F3FD47111}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A21:D31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item m="1" x="11"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="15" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Alumno" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="32">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="7">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea field="8" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7FBE22C9-837E-4438-83F0-A08643171F67}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="49">
@@ -18184,17 +18859,17 @@
     <dataField name="Sum of Total" fld="47" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="19">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
@@ -18214,7 +18889,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E9EF0DE-BAA0-4B82-BC94-4C4F1D62E987}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A35:D42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
@@ -18336,13 +19011,13 @@
     <dataField name="Suma de Noviembre3" fld="45" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="23">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="2" selected="0">
@@ -18352,7 +19027,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="2">
@@ -18361,681 +19036,6 @@
           </reference>
         </references>
       </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8A3BFAB-FC5E-43A6-8CF5-E0F2F569B261}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A61:D71" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item m="1" x="11"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="8"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="15" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Suma de Noviembre3" fld="45" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="27">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="25">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0FFE308-1BD4-44FF-A072-2E4430C91117}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A75:D82" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="8"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="15" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Alumno" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="31">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="28">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36B00CA7-DB1E-4E6F-A153-B286F31CD045}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A47:D57" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item m="1" x="11"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="15"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Estatus" fld="15" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="34">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="15" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E247F413-26A1-461C-B7BB-658F3FD47111}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A21:D31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item m="1" x="11"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="8"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="15" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Alumno" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="39">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="7">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="38">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea field="8" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="35">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -20346,7 +20346,13 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFA399A6-7457-466A-A8E1-0C581281E875}" name="Table1" displayName="Table1" ref="A1:H737" totalsRowCount="1" headerRowDxfId="50">
-  <autoFilter ref="A1:H736" xr:uid="{BFA399A6-7457-466A-A8E1-0C581281E875}"/>
+  <autoFilter ref="A1:H736" xr:uid="{BFA399A6-7457-466A-A8E1-0C581281E875}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Escuela"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H736">
     <sortCondition ref="A1:A736"/>
   </sortState>
@@ -20879,7 +20885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0DCBCA-5B69-43D6-9082-970D5445E651}">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -22413,11 +22419,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494CB971-7A44-471B-94F3-86880B27AB17}">
   <dimension ref="A1:AY120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="H89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J84" sqref="J84"/>
+      <selection pane="bottomRight" activeCell="AS11" sqref="AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -23050,7 +23056,9 @@
       <c r="AT4" s="30">
         <v>0</v>
       </c>
-      <c r="AU4" s="23"/>
+      <c r="AU4" s="30">
+        <v>0</v>
+      </c>
       <c r="AV4" s="38">
         <f>SUM(Table14[[#This Row],[Julio]:[Diciembre2]])</f>
         <v>3825</v>
@@ -24955,7 +24963,9 @@
       <c r="AT17" s="30">
         <v>0</v>
       </c>
-      <c r="AU17" s="30"/>
+      <c r="AU17" s="30">
+        <v>0</v>
+      </c>
       <c r="AV17" s="63">
         <f>SUM(Table14[[#This Row],[Julio]:[Diciembre2]])</f>
         <v>5100</v>
@@ -38861,8 +38871,8 @@
   <dimension ref="A1:L737"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D721" sqref="D721"/>
+      <pane ySplit="1" topLeftCell="A676" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -38904,7 +38914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>45016</v>
       </c>
@@ -38931,7 +38941,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>45016</v>
       </c>
@@ -38958,7 +38968,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>45051</v>
       </c>
@@ -38985,7 +38995,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>45059</v>
       </c>
@@ -39012,7 +39022,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>45059</v>
       </c>
@@ -39039,7 +39049,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>45063</v>
       </c>
@@ -39066,7 +39076,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>45063</v>
       </c>
@@ -39093,7 +39103,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>45063</v>
       </c>
@@ -39120,7 +39130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>45068</v>
       </c>
@@ -39147,7 +39157,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>45069</v>
       </c>
@@ -39174,7 +39184,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>45069</v>
       </c>
@@ -39201,7 +39211,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>45069</v>
       </c>
@@ -39228,7 +39238,7 @@
         <v>953.16000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>45069</v>
       </c>
@@ -39255,7 +39265,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>45069</v>
       </c>
@@ -39282,7 +39292,7 @@
         <v>287.96999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>45076</v>
       </c>
@@ -39309,7 +39319,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>45076</v>
       </c>
@@ -39336,7 +39346,7 @@
         <v>13419</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>45076</v>
       </c>
@@ -39363,7 +39373,7 @@
         <v>15196</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>45076</v>
       </c>
@@ -39390,7 +39400,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>45076</v>
       </c>
@@ -39416,7 +39426,7 @@
         <v>15198</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>45077</v>
       </c>
@@ -39443,7 +39453,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>45077</v>
       </c>
@@ -39470,7 +39480,7 @@
         <v>880.44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>45077</v>
       </c>
@@ -39497,7 +39507,7 @@
         <v>3284.49</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>45077</v>
       </c>
@@ -39524,7 +39534,7 @@
         <v>406.89</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>45077</v>
       </c>
@@ -39551,7 +39561,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>45077</v>
       </c>
@@ -39578,7 +39588,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>45077</v>
       </c>
@@ -39605,7 +39615,7 @@
         <v>5697</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>45079</v>
       </c>
@@ -39632,7 +39642,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>45079</v>
       </c>
@@ -39659,7 +39669,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>45079</v>
       </c>
@@ -39686,7 +39696,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>45079</v>
       </c>
@@ -39713,7 +39723,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>45079</v>
       </c>
@@ -39740,7 +39750,7 @@
         <v>4395</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>45079</v>
       </c>
@@ -39767,7 +39777,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>45079</v>
       </c>
@@ -39794,7 +39804,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>45079</v>
       </c>
@@ -39821,7 +39831,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>45081</v>
       </c>
@@ -39848,7 +39858,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>45083</v>
       </c>
@@ -39875,7 +39885,7 @@
         <v>1105.9499999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>45083</v>
       </c>
@@ -39902,7 +39912,7 @@
         <v>1330.29</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>45083</v>
       </c>
@@ -39929,7 +39939,7 @@
         <v>10468</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>45088</v>
       </c>
@@ -39956,7 +39966,7 @@
         <v>1928.64</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>45091</v>
       </c>
@@ -39983,7 +39993,7 @@
         <v>21942.34</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>45092</v>
       </c>
@@ -40010,7 +40020,7 @@
         <v>7621</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>45093</v>
       </c>
@@ -40037,7 +40047,7 @@
         <v>778.05</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>45094</v>
       </c>
@@ -40064,7 +40074,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>45095</v>
       </c>
@@ -40091,7 +40101,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>45096</v>
       </c>
@@ -40118,7 +40128,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45097</v>
       </c>
@@ -40145,7 +40155,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>45098</v>
       </c>
@@ -40172,7 +40182,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>45100</v>
       </c>
@@ -40199,7 +40209,7 @@
         <v>8224.8799999999992</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>45100</v>
       </c>
@@ -40226,7 +40236,7 @@
         <v>-8224.8799999999992</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>45100</v>
       </c>
@@ -40253,7 +40263,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>45100</v>
       </c>
@@ -40280,7 +40290,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>45100</v>
       </c>
@@ -40307,7 +40317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>45100</v>
       </c>
@@ -40334,7 +40344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <v>45100</v>
       </c>
@@ -40361,7 +40371,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <v>45100</v>
       </c>
@@ -40388,7 +40398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <v>45100</v>
       </c>
@@ -40415,7 +40425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <v>45100</v>
       </c>
@@ -40442,7 +40452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <v>45100</v>
       </c>
@@ -40469,7 +40479,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <v>45100</v>
       </c>
@@ -40496,7 +40506,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <v>45100</v>
       </c>
@@ -40523,7 +40533,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>45100</v>
       </c>
@@ -40550,7 +40560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <v>45100</v>
       </c>
@@ -40577,7 +40587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>45100</v>
       </c>
@@ -40604,7 +40614,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>45100</v>
       </c>
@@ -40631,7 +40641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <v>45100</v>
       </c>
@@ -40658,7 +40668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <v>45100</v>
       </c>
@@ -40685,7 +40695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <v>45100</v>
       </c>
@@ -40712,7 +40722,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <v>45103</v>
       </c>
@@ -40739,7 +40749,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <v>45103</v>
       </c>
@@ -40766,7 +40776,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <v>45107</v>
       </c>
@@ -40793,7 +40803,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <v>45108</v>
       </c>
@@ -40820,7 +40830,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <v>45111</v>
       </c>
@@ -40847,7 +40857,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <v>45111</v>
       </c>
@@ -40874,7 +40884,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <v>45111</v>
       </c>
@@ -40901,7 +40911,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <v>45111</v>
       </c>
@@ -40928,7 +40938,7 @@
         <v>3525.35</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <v>45111</v>
       </c>
@@ -40955,7 +40965,7 @@
         <v>6845</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <v>45111</v>
       </c>
@@ -40982,7 +40992,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <v>45111</v>
       </c>
@@ -41009,7 +41019,7 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <v>45111</v>
       </c>
@@ -41037,7 +41047,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <v>45111</v>
       </c>
@@ -41064,7 +41074,7 @@
         <v>3712</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <v>45113</v>
       </c>
@@ -41091,7 +41101,7 @@
         <v>2813.77</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <v>45113</v>
       </c>
@@ -41118,7 +41128,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <v>45114</v>
       </c>
@@ -41145,7 +41155,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <v>45116</v>
       </c>
@@ -41172,7 +41182,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <v>45116</v>
       </c>
@@ -41199,7 +41209,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <v>45118</v>
       </c>
@@ -41226,7 +41236,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <v>45119</v>
       </c>
@@ -41253,7 +41263,7 @@
         <v>427.24</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <v>45119</v>
       </c>
@@ -41280,7 +41290,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <v>45119</v>
       </c>
@@ -41307,7 +41317,7 @@
         <v>317.72000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <v>45120</v>
       </c>
@@ -41334,7 +41344,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <v>45120</v>
       </c>
@@ -41361,7 +41371,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <v>45120</v>
       </c>
@@ -41388,7 +41398,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <v>45120</v>
       </c>
@@ -41415,7 +41425,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <v>45120</v>
       </c>
@@ -41442,7 +41452,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <v>45120</v>
       </c>
@@ -41469,7 +41479,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <v>45122</v>
       </c>
@@ -41497,7 +41507,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
         <v>45124</v>
       </c>
@@ -41524,7 +41534,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
         <v>45124</v>
       </c>
@@ -41551,7 +41561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
         <v>45124</v>
       </c>
@@ -41578,7 +41588,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
         <v>45124</v>
       </c>
@@ -41605,7 +41615,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
         <v>45124</v>
       </c>
@@ -41632,7 +41642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
         <v>45124</v>
       </c>
@@ -41659,7 +41669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
         <v>45124</v>
       </c>
@@ -41686,7 +41696,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <v>45127</v>
       </c>
@@ -41713,7 +41723,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
         <v>45128</v>
       </c>
@@ -41740,7 +41750,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
         <v>45128</v>
       </c>
@@ -41767,7 +41777,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
         <v>45129</v>
       </c>
@@ -41794,7 +41804,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
         <v>45129</v>
       </c>
@@ -41821,7 +41831,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
         <v>45131</v>
       </c>
@@ -41848,7 +41858,7 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
         <v>45131</v>
       </c>
@@ -41875,7 +41885,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
         <v>45131</v>
       </c>
@@ -41902,7 +41912,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
         <v>45132</v>
       </c>
@@ -41929,7 +41939,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
         <v>45136</v>
       </c>
@@ -41956,7 +41966,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
         <v>45136</v>
       </c>
@@ -41983,7 +41993,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
         <v>45136</v>
       </c>
@@ -42010,7 +42020,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
         <v>45138</v>
       </c>
@@ -42038,7 +42048,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
         <v>45138</v>
       </c>
@@ -42065,7 +42075,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" s="3">
         <v>45139</v>
       </c>
@@ -42092,7 +42102,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" s="3">
         <v>45139</v>
       </c>
@@ -42119,7 +42129,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" s="3">
         <v>45143</v>
       </c>
@@ -42173,7 +42183,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123" s="3">
         <v>45144</v>
       </c>
@@ -42200,7 +42210,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" s="3">
         <v>45150</v>
       </c>
@@ -42227,7 +42237,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" s="3">
         <v>45153</v>
       </c>
@@ -42254,7 +42264,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
         <v>45153</v>
       </c>
@@ -42281,7 +42291,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" s="3">
         <v>45153</v>
       </c>
@@ -42308,7 +42318,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" s="3">
         <v>45153</v>
       </c>
@@ -42335,7 +42345,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" s="3">
         <v>45155</v>
       </c>
@@ -42362,7 +42372,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" s="3">
         <v>45155</v>
       </c>
@@ -42389,7 +42399,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131" s="3">
         <v>45157</v>
       </c>
@@ -42416,7 +42426,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132" s="3">
         <v>45159</v>
       </c>
@@ -42443,7 +42453,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
         <v>45160</v>
       </c>
@@ -42470,7 +42480,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
         <v>45160</v>
       </c>
@@ -42497,7 +42507,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
         <v>45160</v>
       </c>
@@ -42524,7 +42534,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
         <v>45160</v>
       </c>
@@ -42551,7 +42561,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
         <v>45161</v>
       </c>
@@ -42578,7 +42588,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
         <v>45162</v>
       </c>
@@ -42605,7 +42615,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139" s="3">
         <v>45162</v>
       </c>
@@ -42632,7 +42642,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140" s="3">
         <v>45164</v>
       </c>
@@ -42686,7 +42696,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142" s="3">
         <v>45167</v>
       </c>
@@ -42713,7 +42723,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143" s="3">
         <v>45169</v>
       </c>
@@ -42740,7 +42750,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144" s="3">
         <v>45169</v>
       </c>
@@ -42794,7 +42804,7 @@
         <v>488.36</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
         <v>45171</v>
       </c>
@@ -42901,7 +42911,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
         <v>45178</v>
       </c>
@@ -42928,7 +42938,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
         <v>45184</v>
       </c>
@@ -42955,7 +42965,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A152" s="3">
         <v>45189</v>
       </c>
@@ -42982,7 +42992,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153" s="3">
         <v>45190</v>
       </c>
@@ -43009,7 +43019,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
         <v>45193</v>
       </c>
@@ -43036,7 +43046,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A155" s="3">
         <v>45195</v>
       </c>
@@ -43063,7 +43073,7 @@
         <v>8816</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156" s="3">
         <v>45199</v>
       </c>
@@ -43090,7 +43100,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A157" s="3">
         <v>45199</v>
       </c>
@@ -43117,7 +43127,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A158" s="3">
         <v>45199</v>
       </c>
@@ -43144,7 +43154,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A159" s="3">
         <v>45199</v>
       </c>
@@ -43171,7 +43181,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A160" s="3">
         <v>45199</v>
       </c>
@@ -43198,7 +43208,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A161" s="3">
         <v>45199</v>
       </c>
@@ -43225,7 +43235,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A162" s="3">
         <v>45199</v>
       </c>
@@ -43279,7 +43289,7 @@
         <v>945.11</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A164" s="3">
         <v>45200</v>
       </c>
@@ -43306,7 +43316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A165" s="3">
         <v>45200</v>
       </c>
@@ -43333,7 +43343,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A166" s="3">
         <v>45203</v>
       </c>
@@ -43360,7 +43370,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A167" s="3">
         <v>45205</v>
       </c>
@@ -43387,7 +43397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A168" s="3">
         <v>45206</v>
       </c>
@@ -43414,7 +43424,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A169" s="3">
         <v>45213</v>
       </c>
@@ -43441,7 +43451,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A170" s="3">
         <v>45214</v>
       </c>
@@ -43468,7 +43478,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A171" s="3">
         <v>45215</v>
       </c>
@@ -43495,7 +43505,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A172" s="3">
         <v>45219</v>
       </c>
@@ -43522,7 +43532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A173" s="3">
         <v>45219</v>
       </c>
@@ -43549,7 +43559,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A174" s="3">
         <v>45220</v>
       </c>
@@ -43576,7 +43586,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A175" s="3">
         <v>45227</v>
       </c>
@@ -43603,7 +43613,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A176" s="3">
         <v>45230</v>
       </c>
@@ -43630,7 +43640,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A177" s="3">
         <v>45230</v>
       </c>
@@ -43657,7 +43667,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A178" s="3">
         <v>45230</v>
       </c>
@@ -43684,7 +43694,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A179" s="3">
         <v>45230</v>
       </c>
@@ -43765,7 +43775,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A182" s="3">
         <v>45230</v>
       </c>
@@ -43792,7 +43802,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A183" s="3">
         <v>45230</v>
       </c>
@@ -43819,7 +43829,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A184" s="3">
         <v>45230</v>
       </c>
@@ -43846,7 +43856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A185" s="3">
         <v>45230</v>
       </c>
@@ -43873,7 +43883,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A186" s="3">
         <v>45230</v>
       </c>
@@ -43900,7 +43910,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A187" s="3">
         <v>45230</v>
       </c>
@@ -43927,7 +43937,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A188" s="3">
         <v>45230</v>
       </c>
@@ -43954,7 +43964,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A189" s="3">
         <v>45234</v>
       </c>
@@ -43981,7 +43991,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A190" s="3">
         <v>45240</v>
       </c>
@@ -44008,7 +44018,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A191" s="3">
         <v>45242</v>
       </c>
@@ -44035,7 +44045,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A192" s="3">
         <v>45244</v>
       </c>
@@ -44062,7 +44072,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A193" s="3">
         <v>45246</v>
       </c>
@@ -44116,7 +44126,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A195" s="3">
         <v>45248</v>
       </c>
@@ -44143,7 +44153,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A196" s="3">
         <v>45250</v>
       </c>
@@ -44278,7 +44288,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A201" s="3">
         <v>45260</v>
       </c>
@@ -44332,7 +44342,7 @@
         <v>800.98</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A203" s="3">
         <v>45260</v>
       </c>
@@ -44359,7 +44369,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A204" s="3">
         <v>45260</v>
       </c>
@@ -44386,7 +44396,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A205" s="3">
         <v>45260</v>
       </c>
@@ -44413,7 +44423,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A206" s="3">
         <v>45260</v>
       </c>
@@ -44440,7 +44450,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A207" s="3">
         <v>45260</v>
       </c>
@@ -44467,7 +44477,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A208" s="3">
         <v>45262</v>
       </c>
@@ -44494,7 +44504,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A209" s="3">
         <v>45269</v>
       </c>
@@ -44548,7 +44558,7 @@
         <v>349.12</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A211" s="3">
         <v>45276</v>
       </c>
@@ -44575,7 +44585,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A212" s="3">
         <v>45276</v>
       </c>
@@ -44602,7 +44612,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A213" s="3">
         <v>45276</v>
       </c>
@@ -44629,7 +44639,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A214" s="3">
         <v>45278</v>
       </c>
@@ -44684,7 +44694,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A216" s="3">
         <v>45281</v>
       </c>
@@ -44711,7 +44721,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A217" s="3">
         <v>45281</v>
       </c>
@@ -44792,7 +44802,7 @@
         <v>813.16</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A220" s="3">
         <v>45291</v>
       </c>
@@ -44819,7 +44829,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A221" s="3">
         <v>45291</v>
       </c>
@@ -44846,7 +44856,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A222" s="3">
         <v>45291</v>
       </c>
@@ -44873,7 +44883,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A223" s="3">
         <v>45291</v>
       </c>
@@ -44900,7 +44910,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A224" s="3">
         <v>45291</v>
       </c>
@@ -44927,7 +44937,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A225" s="3">
         <v>45296</v>
       </c>
@@ -44981,7 +44991,7 @@
         <v>4486</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A227" s="3">
         <v>45297</v>
       </c>
@@ -45008,7 +45018,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A228" s="3">
         <v>45298</v>
       </c>
@@ -45089,7 +45099,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A231" s="3">
         <v>45306</v>
       </c>
@@ -45143,7 +45153,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A233" s="3">
         <v>45307</v>
       </c>
@@ -45197,7 +45207,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A235" s="3">
         <v>45313</v>
       </c>
@@ -45224,7 +45234,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A236" s="3">
         <v>45313</v>
       </c>
@@ -45251,7 +45261,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A237" s="3">
         <v>45313</v>
       </c>
@@ -45278,7 +45288,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A238" s="3">
         <v>45320</v>
       </c>
@@ -45332,7 +45342,7 @@
         <v>813.16</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A240" s="3">
         <v>45322</v>
       </c>
@@ -45359,7 +45369,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A241" s="3">
         <v>45322</v>
       </c>
@@ -45386,7 +45396,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A242" s="3">
         <v>45322</v>
       </c>
@@ -45413,7 +45423,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A243" s="3">
         <v>45322</v>
       </c>
@@ -45440,7 +45450,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A244" s="3">
         <v>45322</v>
       </c>
@@ -45467,7 +45477,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A245" s="3">
         <v>45324</v>
       </c>
@@ -45494,7 +45504,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A246" s="3">
         <v>45324</v>
       </c>
@@ -45521,7 +45531,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A247" s="3">
         <v>45325</v>
       </c>
@@ -45548,7 +45558,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A248" s="3">
         <v>45325</v>
       </c>
@@ -45656,7 +45666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A252" s="3">
         <v>45325</v>
       </c>
@@ -45737,7 +45747,7 @@
         <v>343.42</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A255" s="3">
         <v>45338</v>
       </c>
@@ -45764,7 +45774,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A256" s="3">
         <v>45340</v>
       </c>
@@ -45818,7 +45828,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A258" s="3">
         <v>45345</v>
       </c>
@@ -45845,7 +45855,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A259" s="3">
         <v>45345</v>
       </c>
@@ -45926,7 +45936,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A262" s="3">
         <v>45350</v>
       </c>
@@ -45980,7 +45990,7 @@
         <v>752.26</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A264" s="3">
         <v>45351</v>
       </c>
@@ -46115,7 +46125,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A269" s="3">
         <v>45353</v>
       </c>
@@ -46223,7 +46233,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A273" s="3">
         <v>45363</v>
       </c>
@@ -46385,7 +46395,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A279" s="3">
         <v>45376</v>
       </c>
@@ -46466,7 +46476,7 @@
         <v>949.17</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A282" s="3">
         <v>45382</v>
       </c>
@@ -46601,7 +46611,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A287" s="3">
         <v>45386</v>
       </c>
@@ -46737,7 +46747,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A292" s="3">
         <v>45399</v>
       </c>
@@ -46791,7 +46801,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A294" s="3">
         <v>45403</v>
       </c>
@@ -46818,7 +46828,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A295" s="3">
         <v>45403</v>
       </c>
@@ -46899,7 +46909,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A298" s="3">
         <v>45411</v>
       </c>
@@ -46926,7 +46936,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A299" s="3">
         <v>45412</v>
       </c>
@@ -46953,7 +46963,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A300" s="3">
         <v>45412</v>
       </c>
@@ -46980,7 +46990,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A301" s="3">
         <v>45412</v>
       </c>
@@ -47007,7 +47017,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A302" s="3">
         <v>45412</v>
       </c>
@@ -47061,7 +47071,7 @@
         <v>711.66</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A304" s="3">
         <v>45416</v>
       </c>
@@ -47088,7 +47098,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A305" s="3">
         <v>45416</v>
       </c>
@@ -47169,7 +47179,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A308" s="3">
         <v>45420</v>
       </c>
@@ -47196,7 +47206,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A309" s="3">
         <v>45420</v>
       </c>
@@ -47277,7 +47287,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A312" s="3">
         <v>45422</v>
       </c>
@@ -47331,7 +47341,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A314" s="3">
         <v>45430</v>
       </c>
@@ -47385,7 +47395,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A316" s="3">
         <v>45432</v>
       </c>
@@ -47412,7 +47422,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A317" s="3">
         <v>45432</v>
       </c>
@@ -47466,7 +47476,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A319" s="3">
         <v>45434</v>
       </c>
@@ -47547,7 +47557,7 @@
         <v>1022.25</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A322" s="3">
         <v>45443</v>
       </c>
@@ -47601,7 +47611,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A324" s="3">
         <v>45443</v>
       </c>
@@ -47628,7 +47638,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A325" s="3">
         <v>45443</v>
       </c>
@@ -47709,7 +47719,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A328" s="3">
         <v>45446</v>
       </c>
@@ -47763,7 +47773,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A330" s="3">
         <v>45454</v>
       </c>
@@ -47791,7 +47801,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A331" s="3">
         <v>45458</v>
       </c>
@@ -47845,7 +47855,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A333" s="3">
         <v>45459</v>
       </c>
@@ -47899,7 +47909,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A335" s="3">
         <v>45461</v>
       </c>
@@ -47953,7 +47963,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A337" s="3">
         <v>45465</v>
       </c>
@@ -47980,7 +47990,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A338" s="3">
         <v>45465</v>
       </c>
@@ -48034,7 +48044,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A340" s="3">
         <v>45472</v>
       </c>
@@ -48088,7 +48098,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A342" s="3">
         <v>45473</v>
       </c>
@@ -48115,7 +48125,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A343" s="3">
         <v>45473</v>
       </c>
@@ -48142,7 +48152,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A344" s="3">
         <v>45473</v>
       </c>
@@ -48170,7 +48180,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A345" s="3">
         <v>45473</v>
       </c>
@@ -48197,7 +48207,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A346" s="3">
         <v>45473</v>
       </c>
@@ -48224,7 +48234,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A347" s="3">
         <v>45473</v>
       </c>
@@ -48251,7 +48261,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A348" s="3">
         <v>45473</v>
       </c>
@@ -48413,7 +48423,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A354" s="3">
         <v>45488</v>
       </c>
@@ -48521,7 +48531,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A358" s="3">
         <v>45498</v>
       </c>
@@ -48548,7 +48558,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A359" s="3">
         <v>45498</v>
       </c>
@@ -48926,7 +48936,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A373" s="3">
         <v>45520</v>
       </c>
@@ -49061,7 +49071,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A378" s="3">
         <v>45534</v>
       </c>
@@ -49142,7 +49152,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A381" s="3">
         <v>45535</v>
       </c>
@@ -49223,7 +49233,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A384" s="3">
         <v>45535</v>
       </c>
@@ -49250,7 +49260,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A385" s="3">
         <v>45535</v>
       </c>
@@ -49358,7 +49368,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A389" s="3">
         <v>45541</v>
       </c>
@@ -49438,7 +49448,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A392" s="3">
         <v>45552</v>
       </c>
@@ -49898,7 +49908,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A409" s="3">
         <v>45580</v>
       </c>
@@ -50277,7 +50287,7 @@
         <v>1773.35</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A423" s="3">
         <v>45598</v>
       </c>
@@ -50358,7 +50368,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A426" s="3">
         <v>45604</v>
       </c>
@@ -50546,7 +50556,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A433" s="3">
         <v>45612</v>
       </c>
@@ -50708,7 +50718,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A439" s="3">
         <v>45626</v>
       </c>
@@ -50816,7 +50826,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A443" s="3">
         <v>45626</v>
       </c>
@@ -50843,7 +50853,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A444" s="3">
         <v>45626</v>
       </c>
@@ -51059,7 +51069,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A452" s="3">
         <v>45637</v>
       </c>
@@ -51330,7 +51340,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A462" s="3">
         <v>45649</v>
       </c>
@@ -51679,7 +51689,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A475" s="3">
         <v>45665</v>
       </c>
@@ -51706,7 +51716,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A476" s="3">
         <v>45670</v>
       </c>
@@ -51867,7 +51877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A482" s="3">
         <v>45677</v>
       </c>
@@ -51948,7 +51958,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A485" s="3">
         <v>45679</v>
       </c>
@@ -52434,7 +52444,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A503" s="3">
         <v>45704</v>
       </c>
@@ -52893,7 +52903,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A520" s="3">
         <v>45717</v>
       </c>
@@ -53000,7 +53010,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A524" s="3">
         <v>45732</v>
       </c>
@@ -53108,7 +53118,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A528" s="3">
         <v>45739</v>
       </c>
@@ -53514,7 +53524,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A543" s="3">
         <v>45763</v>
       </c>
@@ -53893,7 +53903,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A557" s="3">
         <v>45782</v>
       </c>
@@ -54379,7 +54389,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A575" s="3">
         <v>45808</v>
       </c>
@@ -57359,7 +57369,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A685" s="3">
         <v>45947</v>
       </c>
@@ -58250,7 +58260,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A718" s="3">
         <v>45991</v>
       </c>
@@ -58574,7 +58584,7 @@
         <v>3302.96</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A730" s="3"/>
       <c r="G730" s="23"/>
       <c r="H730" s="4">
@@ -58582,7 +58592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A731" s="3"/>
       <c r="G731" s="23"/>
       <c r="H731" s="4">
@@ -58590,7 +58600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A732" s="3"/>
       <c r="G732" s="23"/>
       <c r="H732" s="4">
@@ -58598,7 +58608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A733" s="3"/>
       <c r="G733" s="23"/>
       <c r="H733" s="4">
@@ -58606,7 +58616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A734" s="3"/>
       <c r="G734" s="23"/>
       <c r="H734" s="4">
@@ -58614,7 +58624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A735" s="3"/>
       <c r="G735" s="23"/>
       <c r="H735" s="4">
@@ -58622,7 +58632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A736" s="3"/>
       <c r="G736" s="23"/>
       <c r="H736" s="4">
@@ -59790,7 +59800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195A0105-3A59-49D8-BD5A-3DA537A00814}">
   <dimension ref="A1:BB45"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>

--- a/Gastos Socios Symbiot.xlsx
+++ b/Gastos Socios Symbiot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\symbiot\symbiot_finance_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4E6BAA-7092-436E-8A08-672FA196458A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB80A3D-B3C6-491A-A734-8E068FDC0F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" tabRatio="773" activeTab="2" xr2:uid="{9089598D-A971-4695-A3E9-38E00D99589C}"/>
   </bookViews>
@@ -2807,149 +2807,6 @@
   </cellStyles>
   <dxfs count="151">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -3200,7 +3057,29 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
@@ -3208,7 +3087,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
@@ -3216,7 +3094,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
@@ -3224,7 +3101,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
@@ -3232,7 +3108,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
@@ -3240,7 +3115,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
@@ -3248,7 +3122,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
@@ -3256,11 +3129,62 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
@@ -3274,7 +3198,107 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
@@ -3285,55 +3309,16 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3356,6 +3341,21 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -18215,17 +18215,17 @@
     <dataField name="Sum of Total" fld="47" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="60">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
@@ -18367,13 +18367,13 @@
     <dataField name="Suma de Noviembre3" fld="45" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="64">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="2" selected="0">
@@ -18383,7 +18383,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="2">
@@ -18543,13 +18543,13 @@
     <dataField name="Suma de Noviembre3" fld="45" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="68">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="2" selected="0">
@@ -18559,7 +18559,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="2">
@@ -18704,13 +18704,13 @@
     <dataField name="Count of Alumno" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="72">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="2" selected="0">
@@ -18720,7 +18720,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="2">
@@ -18870,13 +18870,13 @@
     <dataField name="Count of Estatus" fld="15" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="75">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="32">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="15" count="0"/>
@@ -19033,7 +19033,7 @@
     <dataField name="Count of Alumno" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="80">
+    <format dxfId="39">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="7">
@@ -19048,24 +19048,24 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="36">
       <pivotArea field="8" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="35">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -19506,61 +19506,61 @@
     <dataField name="Suma de Total" fld="6" baseField="0" baseItem="0" numFmtId="8"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="56">
+    <format dxfId="15">
       <pivotArea field="2" outline="0" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="13">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="12">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="11">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="8">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="5">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="3">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="1">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1" selected="0">
@@ -19569,7 +19569,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -20198,7 +20198,7 @@
     <dataField name="Sum of Total" fld="6" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="57">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20253,131 +20253,137 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9B0D3573-E4D3-46D4-8941-9E5BFEB561B5}" name="Table14" displayName="Table14" ref="A1:AX121" totalsRowCount="1" headerRowDxfId="134">
-  <autoFilter ref="A1:AX120" xr:uid="{BFA399A6-7457-466A-A8E1-0C581281E875}"/>
+  <autoFilter ref="A1:AX120" xr:uid="{BFA399A6-7457-466A-A8E1-0C581281E875}">
+    <filterColumn colId="47">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AX120">
     <sortCondition ref="B1:B120"/>
   </sortState>
   <tableColumns count="50">
-    <tableColumn id="1" xr3:uid="{22FE3325-3F0C-4FF9-B9FF-47A645BFCF04}" name="Num Alumno" dataDxfId="133" totalsRowDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{22FE3325-3F0C-4FF9-B9FF-47A645BFCF04}" name="Num Alumno" dataDxfId="133" totalsRowDxfId="132"/>
     <tableColumn id="2" xr3:uid="{381104ED-278D-448C-85FC-4A7E3AF3DC05}" name="Alumno"/>
-    <tableColumn id="10" xr3:uid="{E92BE7EA-EBB2-4A0C-96E2-0DBE48306F37}" name="Edad" dataDxfId="132" totalsRowDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{E92BE7EA-EBB2-4A0C-96E2-0DBE48306F37}" name="Edad" dataDxfId="131" totalsRowDxfId="130"/>
     <tableColumn id="3" xr3:uid="{A82F4F10-B150-43BC-AA9C-55D716B38D02}" name="Maestro"/>
-    <tableColumn id="9" xr3:uid="{587C9B83-F274-4FFB-8C7B-8E74CB25FF97}" name="Fecha de inscripción" dataDxfId="131" totalsRowDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{0CCD438F-3692-470C-A478-28A1B4CE6DB7}" name="Fecha de pago" dataDxfId="130" totalsRowDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{587C9B83-F274-4FFB-8C7B-8E74CB25FF97}" name="Fecha de inscripción" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="11" xr3:uid="{0CCD438F-3692-470C-A478-28A1B4CE6DB7}" name="Fecha de pago" dataDxfId="127" totalsRowDxfId="126"/>
     <tableColumn id="12" xr3:uid="{C193D3F5-A6B5-415B-B7B0-7A3907E31527}" name="Promocion"/>
     <tableColumn id="8" xr3:uid="{BA7E9AC7-2995-42D9-8226-9BC64D135045}" name="Clase"/>
-    <tableColumn id="13" xr3:uid="{59A71299-E821-4D87-8D12-806FC34A1078}" name="Tipo" dataDxfId="129" totalsRowDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{59A71299-E821-4D87-8D12-806FC34A1078}" name="Tipo" dataDxfId="125" totalsRowDxfId="124"/>
     <tableColumn id="14" xr3:uid="{C964548A-02EC-43E6-8589-9FE5EC5BCEFC}" name="Horario"/>
-    <tableColumn id="4" xr3:uid="{DBC42755-FCEC-4041-A87A-25A120DAACEB}" name="Forma de Pago" dataDxfId="128" totalsRowDxfId="35"/>
-    <tableColumn id="32" xr3:uid="{12E66F8C-E7D1-42D2-963B-FCFD6BA6427F}" name="Domicilado" dataDxfId="127" totalsRowDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{63649793-4429-42F0-AC13-D5B992DC1A9D}" name="Cantidad" dataDxfId="126" totalsRowDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{908CCE59-350B-4302-8336-6728C7319715}" name="Precio x unidad" dataDxfId="125" totalsRowDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{DBC42755-FCEC-4041-A87A-25A120DAACEB}" name="Forma de Pago" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="32" xr3:uid="{12E66F8C-E7D1-42D2-963B-FCFD6BA6427F}" name="Domicilado" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="5" xr3:uid="{63649793-4429-42F0-AC13-D5B992DC1A9D}" name="Cantidad" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{908CCE59-350B-4302-8336-6728C7319715}" name="Precio x unidad" dataDxfId="117" totalsRowDxfId="116"/>
     <tableColumn id="15" xr3:uid="{EDE007B4-CFFC-4066-9B63-8AA0D38E36FF}" name="Domicilado2"/>
     <tableColumn id="16" xr3:uid="{619A5E6C-0A6A-4535-9EE8-CEECC82883F2}" name="Estatus"/>
-    <tableColumn id="28" xr3:uid="{0B8D5572-80AA-4526-B946-CED9E498BEA9}" name="Tipo de Clase" dataDxfId="124">
+    <tableColumn id="28" xr3:uid="{0B8D5572-80AA-4526-B946-CED9E498BEA9}" name="Tipo de Clase" dataDxfId="115">
       <calculatedColumnFormula>_xlfn.CONCAT(Table14[[#This Row],[Clase]]," ",Table14[[#This Row],[Tipo]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6CE68872-BD3E-423E-A8F4-68534FD74DF8}" name="Julio" totalsRowFunction="custom" totalsRowDxfId="31">
+    <tableColumn id="17" xr3:uid="{6CE68872-BD3E-423E-A8F4-68534FD74DF8}" name="Julio" totalsRowFunction="custom" totalsRowDxfId="114">
       <totalsRowFormula>SUM(R2:R120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{F06B3061-C34F-4ADC-8B79-AF6755CA94B1}" name="Agosto" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="30">
+    <tableColumn id="18" xr3:uid="{F06B3061-C34F-4ADC-8B79-AF6755CA94B1}" name="Agosto" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="112">
       <totalsRowFormula>SUM(S2:S120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4EAAF530-4B11-48C0-A9B7-CAA4E0AA70F2}" name="Septiembre" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="29">
+    <tableColumn id="19" xr3:uid="{4EAAF530-4B11-48C0-A9B7-CAA4E0AA70F2}" name="Septiembre" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="110">
       <totalsRowFormula>SUM(T2:T120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{46B2AE54-BE68-48F8-9798-57D10A97EF39}" name="Octubre" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="28">
+    <tableColumn id="20" xr3:uid="{46B2AE54-BE68-48F8-9798-57D10A97EF39}" name="Octubre" totalsRowFunction="custom" dataDxfId="109" totalsRowDxfId="108">
       <totalsRowFormula>SUM(U2:U120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{DCAABE8E-47E1-410B-B7AC-BE18E0142970}" name="Noviembre" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="27">
+    <tableColumn id="21" xr3:uid="{DCAABE8E-47E1-410B-B7AC-BE18E0142970}" name="Noviembre" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="106">
       <totalsRowFormula>SUM(V2:V120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{981A4256-C0F9-4DAE-980D-7147BEB52904}" name="Diciembre" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="26">
+    <tableColumn id="22" xr3:uid="{981A4256-C0F9-4DAE-980D-7147BEB52904}" name="Diciembre" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="104">
       <totalsRowFormula>SUM(W2:W120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{6BA15BD9-3A29-48F7-B5EB-6DB2FC89EB39}" name="Enero" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="25">
+    <tableColumn id="24" xr3:uid="{6BA15BD9-3A29-48F7-B5EB-6DB2FC89EB39}" name="Enero" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="102">
       <totalsRowFormula>SUM(X2:X120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{8E9C40ED-116E-4F34-8AA5-8D33D0E66CDF}" name="Febrero" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="24">
+    <tableColumn id="23" xr3:uid="{8E9C40ED-116E-4F34-8AA5-8D33D0E66CDF}" name="Febrero" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="100">
       <totalsRowFormula>SUM(Y2:Y120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{6B1BD976-8574-490D-B67F-A78939C42A50}" name="Marzo" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="23">
+    <tableColumn id="26" xr3:uid="{6B1BD976-8574-490D-B67F-A78939C42A50}" name="Marzo" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
       <totalsRowFormula>SUM(Z2:Z120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{F952A291-66AC-49B4-B371-67AA03BF30EF}" name="Abril" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="22">
+    <tableColumn id="27" xr3:uid="{F952A291-66AC-49B4-B371-67AA03BF30EF}" name="Abril" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
       <totalsRowFormula>SUM(AA2:AA120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{2E4828CA-68D9-474A-81C5-FFF34121BD95}" name="Mayo" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="21">
+    <tableColumn id="25" xr3:uid="{2E4828CA-68D9-474A-81C5-FFF34121BD95}" name="Mayo" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="94">
       <totalsRowFormula>SUM(AB2:AB120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{E796EFC8-A70B-415C-BDA5-CE0977C1A2EE}" name="Junio" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="20">
+    <tableColumn id="31" xr3:uid="{E796EFC8-A70B-415C-BDA5-CE0977C1A2EE}" name="Junio" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="92">
       <totalsRowFormula>SUM(AC2:AC120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{28D759F4-8442-4888-9566-C336035DFDC1}" name="Julio2" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="19">
+    <tableColumn id="30" xr3:uid="{28D759F4-8442-4888-9566-C336035DFDC1}" name="Julio2" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="90">
       <totalsRowFormula>SUM(AD2:AD120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{AD78B7A4-514A-4D16-8EB3-9D2808950D45}" name="Agosto2" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="18">
+    <tableColumn id="29" xr3:uid="{AD78B7A4-514A-4D16-8EB3-9D2808950D45}" name="Agosto2" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="88">
       <totalsRowFormula>SUM(AE2:AE120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{A91A2628-B7DF-47B2-8012-5A1394E22930}" name="Septiembre2" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="17">
+    <tableColumn id="33" xr3:uid="{A91A2628-B7DF-47B2-8012-5A1394E22930}" name="Septiembre2" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="86">
       <totalsRowFormula>SUM(AF2:AF120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{261370ED-3AFA-47F0-B6C4-7C7FB0348ED8}" name="Octubre2" totalsRowFunction="custom" dataDxfId="109" totalsRowDxfId="16">
+    <tableColumn id="34" xr3:uid="{261370ED-3AFA-47F0-B6C4-7C7FB0348ED8}" name="Octubre2" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
       <totalsRowFormula>SUM(AG2:AG120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{BBFF8603-7E74-40F7-81A8-7A8265011B1C}" name="Noviembre2" totalsRowFunction="custom" dataDxfId="108" totalsRowDxfId="15">
+    <tableColumn id="35" xr3:uid="{BBFF8603-7E74-40F7-81A8-7A8265011B1C}" name="Noviembre2" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
       <totalsRowFormula>SUM(AH2:AH120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{69917871-8EB9-454A-B400-8684D1C21365}" name="Diciembre3" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="14">
+    <tableColumn id="39" xr3:uid="{69917871-8EB9-454A-B400-8684D1C21365}" name="Diciembre3" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80">
       <totalsRowFormula>SUM(AI2:AI120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{E488B402-03D6-4BD8-9D03-B3A9E9BCE9A5}" name="Enero2" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="13">
+    <tableColumn id="38" xr3:uid="{E488B402-03D6-4BD8-9D03-B3A9E9BCE9A5}" name="Enero2" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
       <totalsRowFormula>SUM(AJ2:AJ120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{FECEF4BB-C58F-41A8-8300-FDAE1681476D}" name="Febrero2" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="12">
+    <tableColumn id="37" xr3:uid="{FECEF4BB-C58F-41A8-8300-FDAE1681476D}" name="Febrero2" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
       <totalsRowFormula>SUM(AK2:AK120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{38114AE3-C756-41D4-8042-7F4EE908E86C}" name="Marzo2" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="11">
+    <tableColumn id="40" xr3:uid="{38114AE3-C756-41D4-8042-7F4EE908E86C}" name="Marzo2" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74">
       <totalsRowFormula>SUM(AL2:AL120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{CAD53A45-5676-468A-8720-9FC1DC6DE69A}" name="Abril2" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="10">
+    <tableColumn id="42" xr3:uid="{CAD53A45-5676-468A-8720-9FC1DC6DE69A}" name="Abril2" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="72">
       <totalsRowFormula>SUM(AM2:AM120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{F3CE6FAF-D6F8-4EA3-A043-2AF18436CDEA}" name="Mayo2" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="9">
+    <tableColumn id="41" xr3:uid="{F3CE6FAF-D6F8-4EA3-A043-2AF18436CDEA}" name="Mayo2" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
       <totalsRowFormula>SUM(AN2:AN120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="45" xr3:uid="{F804E5FB-A23F-4F9E-8E45-BB961E0446FB}" name="Junio2" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="8">
+    <tableColumn id="45" xr3:uid="{F804E5FB-A23F-4F9E-8E45-BB961E0446FB}" name="Junio2" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="68">
       <totalsRowFormula>SUM(AO2:AO120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{855B17F7-EF24-4B21-AF6D-46A6497B9136}" name="Julio3" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="7">
+    <tableColumn id="46" xr3:uid="{855B17F7-EF24-4B21-AF6D-46A6497B9136}" name="Julio3" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66">
       <totalsRowFormula>SUM(AP2:AP120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{C61B0969-E8FF-421E-958A-3C8E2F41D676}" name="Agosto3" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="6">
+    <tableColumn id="44" xr3:uid="{C61B0969-E8FF-421E-958A-3C8E2F41D676}" name="Agosto3" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="64">
       <totalsRowFormula>SUM(AQ2:AQ120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{7EFA7755-CAAA-49E1-B0AA-4EFBDE1A47FD}" name="Septiembre3" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="5">
+    <tableColumn id="36" xr3:uid="{7EFA7755-CAAA-49E1-B0AA-4EFBDE1A47FD}" name="Septiembre3" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="62">
       <totalsRowFormula>SUM(AR2:AR120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{F287CABE-D5B2-457A-999C-739B201CDF8E}" name="Octubre3" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="4">
+    <tableColumn id="49" xr3:uid="{F287CABE-D5B2-457A-999C-739B201CDF8E}" name="Octubre3" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="60">
       <totalsRowFormula>SUM(AS2:AS120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{6C5A7346-2A0E-4155-BF17-CD5908A2FC24}" name="Noviembre3" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="3">
+    <tableColumn id="48" xr3:uid="{6C5A7346-2A0E-4155-BF17-CD5908A2FC24}" name="Noviembre3" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="58">
       <totalsRowFormula>SUM(AT2:AT120)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{A0F0DEC6-5B71-42DE-A3B1-3D5E32C0CAC0}" name="Diciembre2" dataDxfId="95" totalsRowDxfId="2"/>
-    <tableColumn id="50" xr3:uid="{FF6F6226-F427-490D-A2AA-5D786EA18AC0}" name="Enero3" dataDxfId="94" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{4D4FC95B-B09A-4BC5-A65D-05D6A8A0C3FE}" name="Total" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="0">
+    <tableColumn id="47" xr3:uid="{A0F0DEC6-5B71-42DE-A3B1-3D5E32C0CAC0}" name="Diciembre2" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="50" xr3:uid="{FF6F6226-F427-490D-A2AA-5D786EA18AC0}" name="Enero3" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{4D4FC95B-B09A-4BC5-A65D-05D6A8A0C3FE}" name="Total" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>SUM(Table14[[#This Row],[Julio]:[Diciembre2]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table14[Total])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{35D56830-A1AF-4602-836F-A57DCC0B92C6}" name="Observaciones" dataDxfId="92"/>
+    <tableColumn id="43" xr3:uid="{35D56830-A1AF-4602-836F-A57DCC0B92C6}" name="Observaciones" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFA399A6-7457-466A-A8E1-0C581281E875}" name="Table1" displayName="Table1" ref="A1:H737" totalsRowCount="1" headerRowDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFA399A6-7457-466A-A8E1-0C581281E875}" name="Table1" displayName="Table1" ref="A1:H737" totalsRowCount="1" headerRowDxfId="50">
   <autoFilter ref="A1:H736" xr:uid="{BFA399A6-7457-466A-A8E1-0C581281E875}">
     <filterColumn colId="2">
       <filters>
@@ -20389,14 +20395,14 @@
     <sortCondition ref="A1:A736"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E1AD0ECF-72E7-4EE2-B6E5-D7A5D15CAB4D}" name="Fecha" totalsRowLabel="Total" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="1" xr3:uid="{E1AD0ECF-72E7-4EE2-B6E5-D7A5D15CAB4D}" name="Fecha" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="48"/>
     <tableColumn id="2" xr3:uid="{255E6142-348E-4056-847C-FC1B935C536B}" name="Concepto"/>
     <tableColumn id="3" xr3:uid="{6DF4309C-0761-4ABE-8464-F84E5EB9223A}" name="Socio"/>
     <tableColumn id="8" xr3:uid="{E8D90A93-C13C-45B4-99F6-B8214C67B72B}" name="Transacción ID"/>
-    <tableColumn id="4" xr3:uid="{0DD5A2EC-CF0D-4EA8-B7EA-217AC263A04D}" name="Forma de Pago" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{4C5448DE-9D16-4C9C-8CE2-7246FBA56126}" name="Cantidad" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{F298497C-54D4-4EAC-AEFF-A51217F4A6CC}" name="Precio x unidad" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{9B6E0B5E-4AFE-4DF6-BE01-3F529965C090}" name="Total" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="81">
+    <tableColumn id="4" xr3:uid="{0DD5A2EC-CF0D-4EA8-B7EA-217AC263A04D}" name="Forma de Pago" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{4C5448DE-9D16-4C9C-8CE2-7246FBA56126}" name="Cantidad" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{F298497C-54D4-4EAC-AEFF-A51217F4A6CC}" name="Precio x unidad" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{9B6E0B5E-4AFE-4DF6-BE01-3F529965C090}" name="Total" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <totalsRowFormula>SUM(Table1[Total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -22452,10 +22458,10 @@
   <dimension ref="A1:AZ127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -22660,7 +22666,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:50" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="53">
         <v>88</v>
       </c>
@@ -22960,7 +22966,7 @@
       </c>
       <c r="AX3" s="23"/>
     </row>
-    <row r="4" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:50" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="64">
         <v>87</v>
       </c>
@@ -23408,7 +23414,7 @@
       </c>
       <c r="AX6" s="23"/>
     </row>
-    <row r="7" spans="1:50" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:50" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="64">
         <v>2</v>
       </c>
@@ -23704,7 +23710,7 @@
       </c>
       <c r="AX8" s="23"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="64">
         <v>33</v>
       </c>
@@ -24006,7 +24012,7 @@
       </c>
       <c r="AX10" s="23"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="64">
         <v>17</v>
       </c>
@@ -24913,7 +24919,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="64">
         <v>76</v>
       </c>
@@ -25059,7 +25065,7 @@
       </c>
       <c r="AX17" s="30"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="64">
         <v>95</v>
       </c>
@@ -25205,7 +25211,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="64">
         <v>11</v>
       </c>
@@ -25647,7 +25653,7 @@
       </c>
       <c r="AX21" s="41"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="64">
         <v>53</v>
       </c>
@@ -25795,7 +25801,7 @@
       </c>
       <c r="AX22" s="23"/>
     </row>
-    <row r="23" spans="1:50" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:50" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="64">
         <v>69</v>
       </c>
@@ -26094,7 +26100,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="64">
         <v>57</v>
       </c>
@@ -26240,7 +26246,7 @@
       </c>
       <c r="AX25" s="23"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="64">
         <v>20</v>
       </c>
@@ -26386,7 +26392,7 @@
       </c>
       <c r="AX26" s="23"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="64">
         <v>21</v>
       </c>
@@ -26679,7 +26685,7 @@
       </c>
       <c r="AX28" s="23"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="64">
         <v>68</v>
       </c>
@@ -27118,7 +27124,7 @@
       </c>
       <c r="AX31" s="23"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="64">
         <v>45</v>
       </c>
@@ -27269,7 +27275,7 @@
       </c>
       <c r="AX32" s="23"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:52" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="64">
         <v>41</v>
       </c>
@@ -27419,7 +27425,7 @@
       </c>
       <c r="AX33" s="23"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:52" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="64">
         <v>84</v>
       </c>
@@ -28164,7 +28170,7 @@
       </c>
       <c r="AX38" s="23"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:52" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="64">
         <v>9</v>
       </c>
@@ -28312,7 +28318,7 @@
       </c>
       <c r="AX39" s="23"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:52" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="64">
         <v>10</v>
       </c>
@@ -28464,7 +28470,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:52" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="64">
         <v>27</v>
       </c>
@@ -28614,7 +28620,7 @@
       </c>
       <c r="AX41" s="23"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:52" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="64">
         <v>92</v>
       </c>
@@ -29208,7 +29214,7 @@
       </c>
       <c r="AX45" s="23"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:52" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="64">
         <v>67</v>
       </c>
@@ -29938,7 +29944,7 @@
       </c>
       <c r="AX50" s="23"/>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="64">
         <v>1</v>
       </c>
@@ -30084,7 +30090,7 @@
       </c>
       <c r="AX51" s="30"/>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="64">
         <v>80</v>
       </c>
@@ -30230,7 +30236,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="64">
         <v>64</v>
       </c>
@@ -30372,7 +30378,7 @@
       </c>
       <c r="AX53" s="23"/>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="64">
         <v>14</v>
       </c>
@@ -30665,7 +30671,7 @@
       </c>
       <c r="AX55" s="23"/>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="64">
         <v>39</v>
       </c>
@@ -30816,7 +30822,7 @@
       </c>
       <c r="AX56" s="23"/>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="64">
         <v>40</v>
       </c>
@@ -30967,7 +30973,7 @@
       </c>
       <c r="AX57" s="23"/>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="64">
         <v>13</v>
       </c>
@@ -31115,7 +31121,7 @@
       </c>
       <c r="AX58" s="30"/>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="64">
         <v>48</v>
       </c>
@@ -31265,7 +31271,7 @@
       </c>
       <c r="AX59" s="23"/>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="64">
         <v>6</v>
       </c>
@@ -31411,7 +31417,7 @@
       </c>
       <c r="AX60" s="23"/>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="64">
         <v>3</v>
       </c>
@@ -32148,7 +32154,7 @@
       </c>
       <c r="AX65" s="23"/>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="64">
         <v>15</v>
       </c>
@@ -32298,7 +32304,7 @@
       </c>
       <c r="AX66" s="23"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="64">
         <v>49</v>
       </c>
@@ -32601,7 +32607,7 @@
       </c>
       <c r="AX68" s="23"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="64">
         <v>22</v>
       </c>
@@ -32747,7 +32753,7 @@
       </c>
       <c r="AX69" s="23"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="64">
         <v>23</v>
       </c>
@@ -33045,7 +33051,7 @@
       </c>
       <c r="AX71" s="23"/>
     </row>
-    <row r="72" spans="1:50" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:50" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="64">
         <v>37</v>
       </c>
@@ -33195,7 +33201,7 @@
       </c>
       <c r="AX72" s="23"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="64">
         <v>5</v>
       </c>
@@ -33345,7 +33351,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="64">
         <v>46</v>
       </c>
@@ -33495,7 +33501,7 @@
       </c>
       <c r="AX74" s="23"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="64">
         <v>51</v>
       </c>
@@ -33643,7 +33649,7 @@
       </c>
       <c r="AX75" s="23"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="64">
         <v>52</v>
       </c>
@@ -33941,7 +33947,7 @@
       </c>
       <c r="AX77" s="23"/>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="64">
         <v>86</v>
       </c>
@@ -34085,7 +34091,7 @@
       </c>
       <c r="AX78" s="23"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="64">
         <v>25</v>
       </c>
@@ -34387,7 +34393,7 @@
       </c>
       <c r="AX80" s="23"/>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="64">
         <v>4</v>
       </c>
@@ -34533,7 +34539,7 @@
       </c>
       <c r="AX81" s="30"/>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="64">
         <v>78</v>
       </c>
@@ -35283,7 +35289,7 @@
       </c>
       <c r="AX86" s="23"/>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="64">
         <v>18</v>
       </c>
@@ -35581,7 +35587,7 @@
       </c>
       <c r="AX88" s="23"/>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="64">
         <v>101</v>
       </c>
@@ -35725,7 +35731,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="64">
         <v>50</v>
       </c>
@@ -35873,7 +35879,7 @@
       </c>
       <c r="AX90" s="23"/>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="64">
         <v>19</v>
       </c>
@@ -36324,7 +36330,7 @@
       </c>
       <c r="AX93" s="23"/>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="64">
         <v>60</v>
       </c>
@@ -36619,7 +36625,7 @@
       </c>
       <c r="AX95" s="23"/>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="64">
         <v>35</v>
       </c>
@@ -36769,7 +36775,7 @@
       </c>
       <c r="AX96" s="23"/>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="64">
         <v>36</v>
       </c>
@@ -37062,7 +37068,7 @@
       </c>
       <c r="AX98" s="23"/>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="64">
         <v>30</v>
       </c>
@@ -37359,7 +37365,7 @@
       </c>
       <c r="AX100" s="23"/>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="64">
         <v>81</v>
       </c>
@@ -37505,7 +37511,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="64">
         <v>82</v>
       </c>
@@ -37801,7 +37807,7 @@
       </c>
       <c r="AX103" s="23"/>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" s="64">
         <v>79</v>
       </c>
@@ -38240,7 +38246,7 @@
       </c>
       <c r="AX106" s="23"/>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" s="64">
         <v>47</v>
       </c>
@@ -38539,7 +38545,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" s="64">
         <v>31</v>
       </c>
@@ -38687,7 +38693,7 @@
       </c>
       <c r="AX109" s="23"/>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" s="64">
         <v>32</v>
       </c>
@@ -39522,7 +39528,7 @@
       </c>
       <c r="AX118" s="23"/>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" s="22"/>
       <c r="N119" s="23"/>
       <c r="Q119" t="str">
@@ -39565,7 +39571,7 @@
       </c>
       <c r="AX119" s="23"/>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" s="22"/>
       <c r="N120" s="23"/>
       <c r="Q120" t="str">
@@ -39760,7 +39766,7 @@
   <dimension ref="A1:L737"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A676" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A698" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>

--- a/Gastos Socios Symbiot.xlsx
+++ b/Gastos Socios Symbiot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\symbiot\symbiot_finance_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB80A3D-B3C6-491A-A734-8E068FDC0F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E270594-03AB-4BFD-B8C3-709D50DF78AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" tabRatio="773" activeTab="2" xr2:uid="{9089598D-A971-4695-A3E9-38E00D99589C}"/>
   </bookViews>
@@ -2904,27 +2904,6 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0;[Red]#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -2965,6 +2944,27 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="#,##0;[Red]#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -5087,7 +5087,7 @@
       <sheetData sheetId="7">
         <row r="129">
           <cell r="AA129">
-            <v>36912.33</v>
+            <v>37060.81</v>
           </cell>
         </row>
       </sheetData>
@@ -18063,6 +18063,681 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8A3BFAB-FC5E-43A6-8CF5-E0F2F569B261}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A61:D71" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="15" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Suma de Noviembre3" fld="45" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="20">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0FFE308-1BD4-44FF-A072-2E4430C91117}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A75:D82" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="15" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Alumno" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="24">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36B00CA7-DB1E-4E6F-A153-B286F31CD045}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A47:D57" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="15"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Estatus" fld="15" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="27">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="15" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E247F413-26A1-461C-B7BB-658F3FD47111}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A21:D31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item m="1" x="11"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="15" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Alumno" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="32">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="7">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea field="8" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7FBE22C9-837E-4438-83F0-A08643171F67}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="49">
@@ -18215,17 +18890,17 @@
     <dataField name="Sum of Total" fld="47" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="19">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
@@ -18245,7 +18920,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E9EF0DE-BAA0-4B82-BC94-4C4F1D62E987}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A35:D42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
@@ -18367,13 +19042,13 @@
     <dataField name="Suma de Noviembre3" fld="45" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="23">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="2" selected="0">
@@ -18383,7 +19058,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="2">
@@ -18392,681 +19067,6 @@
           </reference>
         </references>
       </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8A3BFAB-FC5E-43A6-8CF5-E0F2F569B261}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A61:D71" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item m="1" x="11"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="8"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="15" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Suma de Noviembre3" fld="45" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="27">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="25">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0FFE308-1BD4-44FF-A072-2E4430C91117}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A75:D82" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="8"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="15" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Alumno" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="31">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="28">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36B00CA7-DB1E-4E6F-A153-B286F31CD045}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A47:D57" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item m="1" x="11"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="15"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Estatus" fld="15" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="34">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="15" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E247F413-26A1-461C-B7BB-658F3FD47111}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A21:D31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item m="1" x="11"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="8"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="15" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Alumno" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="39">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="7">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="38">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea field="8" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="35">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -20253,16 +20253,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9B0D3573-E4D3-46D4-8941-9E5BFEB561B5}" name="Table14" displayName="Table14" ref="A1:AX121" totalsRowCount="1" headerRowDxfId="134">
-  <autoFilter ref="A1:AX120" xr:uid="{BFA399A6-7457-466A-A8E1-0C581281E875}">
-    <filterColumn colId="47">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AX120">
-    <sortCondition ref="B1:B120"/>
-  </sortState>
+  <autoFilter ref="A1:AX120" xr:uid="{BFA399A6-7457-466A-A8E1-0C581281E875}"/>
   <tableColumns count="50">
     <tableColumn id="1" xr3:uid="{22FE3325-3F0C-4FF9-B9FF-47A645BFCF04}" name="Num Alumno" dataDxfId="133" totalsRowDxfId="132"/>
     <tableColumn id="2" xr3:uid="{381104ED-278D-448C-85FC-4A7E3AF3DC05}" name="Alumno"/>
@@ -20385,6 +20376,11 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFA399A6-7457-466A-A8E1-0C581281E875}" name="Table1" displayName="Table1" ref="A1:H737" totalsRowCount="1" headerRowDxfId="50">
   <autoFilter ref="A1:H736" xr:uid="{BFA399A6-7457-466A-A8E1-0C581281E875}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Comisiones TPV"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Escuela"/>
@@ -22458,10 +22454,10 @@
   <dimension ref="A1:AZ127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -22666,7 +22662,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:50" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="53">
         <v>88</v>
       </c>
@@ -22966,7 +22962,7 @@
       </c>
       <c r="AX3" s="23"/>
     </row>
-    <row r="4" spans="1:50" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="64">
         <v>87</v>
       </c>
@@ -23414,7 +23410,7 @@
       </c>
       <c r="AX6" s="23"/>
     </row>
-    <row r="7" spans="1:50" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:50" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="64">
         <v>2</v>
       </c>
@@ -23710,7 +23706,7 @@
       </c>
       <c r="AX8" s="23"/>
     </row>
-    <row r="9" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A9" s="64">
         <v>33</v>
       </c>
@@ -24012,7 +24008,7 @@
       </c>
       <c r="AX10" s="23"/>
     </row>
-    <row r="11" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A11" s="64">
         <v>17</v>
       </c>
@@ -24919,7 +24915,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="17" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A17" s="64">
         <v>76</v>
       </c>
@@ -25065,7 +25061,7 @@
       </c>
       <c r="AX17" s="30"/>
     </row>
-    <row r="18" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A18" s="64">
         <v>95</v>
       </c>
@@ -25211,7 +25207,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="19" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A19" s="64">
         <v>11</v>
       </c>
@@ -25653,7 +25649,7 @@
       </c>
       <c r="AX21" s="41"/>
     </row>
-    <row r="22" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A22" s="64">
         <v>53</v>
       </c>
@@ -25801,7 +25797,7 @@
       </c>
       <c r="AX22" s="23"/>
     </row>
-    <row r="23" spans="1:50" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:50" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="64">
         <v>69</v>
       </c>
@@ -26100,7 +26096,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="25" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A25" s="64">
         <v>57</v>
       </c>
@@ -26246,7 +26242,7 @@
       </c>
       <c r="AX25" s="23"/>
     </row>
-    <row r="26" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A26" s="64">
         <v>20</v>
       </c>
@@ -26392,7 +26388,7 @@
       </c>
       <c r="AX26" s="23"/>
     </row>
-    <row r="27" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A27" s="64">
         <v>21</v>
       </c>
@@ -26685,7 +26681,7 @@
       </c>
       <c r="AX28" s="23"/>
     </row>
-    <row r="29" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A29" s="64">
         <v>68</v>
       </c>
@@ -27124,7 +27120,7 @@
       </c>
       <c r="AX31" s="23"/>
     </row>
-    <row r="32" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A32" s="64">
         <v>45</v>
       </c>
@@ -27275,7 +27271,7 @@
       </c>
       <c r="AX32" s="23"/>
     </row>
-    <row r="33" spans="1:52" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A33" s="64">
         <v>41</v>
       </c>
@@ -27425,7 +27421,7 @@
       </c>
       <c r="AX33" s="23"/>
     </row>
-    <row r="34" spans="1:52" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A34" s="64">
         <v>84</v>
       </c>
@@ -28170,7 +28166,7 @@
       </c>
       <c r="AX38" s="23"/>
     </row>
-    <row r="39" spans="1:52" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A39" s="64">
         <v>9</v>
       </c>
@@ -28318,7 +28314,7 @@
       </c>
       <c r="AX39" s="23"/>
     </row>
-    <row r="40" spans="1:52" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A40" s="64">
         <v>10</v>
       </c>
@@ -28470,7 +28466,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="41" spans="1:52" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A41" s="64">
         <v>27</v>
       </c>
@@ -28620,7 +28616,7 @@
       </c>
       <c r="AX41" s="23"/>
     </row>
-    <row r="42" spans="1:52" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A42" s="64">
         <v>92</v>
       </c>
@@ -29214,7 +29210,7 @@
       </c>
       <c r="AX45" s="23"/>
     </row>
-    <row r="46" spans="1:52" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A46" s="64">
         <v>67</v>
       </c>
@@ -29944,7 +29940,7 @@
       </c>
       <c r="AX50" s="23"/>
     </row>
-    <row r="51" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A51" s="64">
         <v>1</v>
       </c>
@@ -30090,7 +30086,7 @@
       </c>
       <c r="AX51" s="30"/>
     </row>
-    <row r="52" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A52" s="64">
         <v>80</v>
       </c>
@@ -30236,7 +30232,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A53" s="64">
         <v>64</v>
       </c>
@@ -30378,7 +30374,7 @@
       </c>
       <c r="AX53" s="23"/>
     </row>
-    <row r="54" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A54" s="64">
         <v>14</v>
       </c>
@@ -30671,7 +30667,7 @@
       </c>
       <c r="AX55" s="23"/>
     </row>
-    <row r="56" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A56" s="64">
         <v>39</v>
       </c>
@@ -30822,7 +30818,7 @@
       </c>
       <c r="AX56" s="23"/>
     </row>
-    <row r="57" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A57" s="64">
         <v>40</v>
       </c>
@@ -30973,7 +30969,7 @@
       </c>
       <c r="AX57" s="23"/>
     </row>
-    <row r="58" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A58" s="64">
         <v>13</v>
       </c>
@@ -31121,7 +31117,7 @@
       </c>
       <c r="AX58" s="30"/>
     </row>
-    <row r="59" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A59" s="64">
         <v>48</v>
       </c>
@@ -31271,7 +31267,7 @@
       </c>
       <c r="AX59" s="23"/>
     </row>
-    <row r="60" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A60" s="64">
         <v>6</v>
       </c>
@@ -31417,7 +31413,7 @@
       </c>
       <c r="AX60" s="23"/>
     </row>
-    <row r="61" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A61" s="64">
         <v>3</v>
       </c>
@@ -32154,7 +32150,7 @@
       </c>
       <c r="AX65" s="23"/>
     </row>
-    <row r="66" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A66" s="64">
         <v>15</v>
       </c>
@@ -32304,7 +32300,7 @@
       </c>
       <c r="AX66" s="23"/>
     </row>
-    <row r="67" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A67" s="64">
         <v>49</v>
       </c>
@@ -32607,7 +32603,7 @@
       </c>
       <c r="AX68" s="23"/>
     </row>
-    <row r="69" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A69" s="64">
         <v>22</v>
       </c>
@@ -32753,7 +32749,7 @@
       </c>
       <c r="AX69" s="23"/>
     </row>
-    <row r="70" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A70" s="64">
         <v>23</v>
       </c>
@@ -33051,7 +33047,7 @@
       </c>
       <c r="AX71" s="23"/>
     </row>
-    <row r="72" spans="1:50" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:50" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="64">
         <v>37</v>
       </c>
@@ -33201,7 +33197,7 @@
       </c>
       <c r="AX72" s="23"/>
     </row>
-    <row r="73" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A73" s="64">
         <v>5</v>
       </c>
@@ -33351,7 +33347,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="74" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A74" s="64">
         <v>46</v>
       </c>
@@ -33501,7 +33497,7 @@
       </c>
       <c r="AX74" s="23"/>
     </row>
-    <row r="75" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A75" s="64">
         <v>51</v>
       </c>
@@ -33649,7 +33645,7 @@
       </c>
       <c r="AX75" s="23"/>
     </row>
-    <row r="76" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A76" s="64">
         <v>52</v>
       </c>
@@ -33947,7 +33943,7 @@
       </c>
       <c r="AX77" s="23"/>
     </row>
-    <row r="78" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A78" s="64">
         <v>86</v>
       </c>
@@ -34091,7 +34087,7 @@
       </c>
       <c r="AX78" s="23"/>
     </row>
-    <row r="79" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A79" s="64">
         <v>25</v>
       </c>
@@ -34393,7 +34389,7 @@
       </c>
       <c r="AX80" s="23"/>
     </row>
-    <row r="81" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A81" s="64">
         <v>4</v>
       </c>
@@ -34539,7 +34535,7 @@
       </c>
       <c r="AX81" s="30"/>
     </row>
-    <row r="82" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A82" s="64">
         <v>78</v>
       </c>
@@ -35289,7 +35285,7 @@
       </c>
       <c r="AX86" s="23"/>
     </row>
-    <row r="87" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A87" s="64">
         <v>18</v>
       </c>
@@ -35587,7 +35583,7 @@
       </c>
       <c r="AX88" s="23"/>
     </row>
-    <row r="89" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A89" s="64">
         <v>101</v>
       </c>
@@ -35731,7 +35727,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="90" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A90" s="64">
         <v>50</v>
       </c>
@@ -35879,7 +35875,7 @@
       </c>
       <c r="AX90" s="23"/>
     </row>
-    <row r="91" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A91" s="64">
         <v>19</v>
       </c>
@@ -36330,7 +36326,7 @@
       </c>
       <c r="AX93" s="23"/>
     </row>
-    <row r="94" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A94" s="64">
         <v>60</v>
       </c>
@@ -36625,7 +36621,7 @@
       </c>
       <c r="AX95" s="23"/>
     </row>
-    <row r="96" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A96" s="64">
         <v>35</v>
       </c>
@@ -36775,7 +36771,7 @@
       </c>
       <c r="AX96" s="23"/>
     </row>
-    <row r="97" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A97" s="64">
         <v>36</v>
       </c>
@@ -37068,7 +37064,7 @@
       </c>
       <c r="AX98" s="23"/>
     </row>
-    <row r="99" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A99" s="64">
         <v>30</v>
       </c>
@@ -37365,7 +37361,7 @@
       </c>
       <c r="AX100" s="23"/>
     </row>
-    <row r="101" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A101" s="64">
         <v>81</v>
       </c>
@@ -37511,7 +37507,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="102" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A102" s="64">
         <v>82</v>
       </c>
@@ -37807,7 +37803,7 @@
       </c>
       <c r="AX103" s="23"/>
     </row>
-    <row r="104" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A104" s="64">
         <v>79</v>
       </c>
@@ -38246,7 +38242,7 @@
       </c>
       <c r="AX106" s="23"/>
     </row>
-    <row r="107" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A107" s="64">
         <v>47</v>
       </c>
@@ -38545,7 +38541,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="109" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A109" s="64">
         <v>31</v>
       </c>
@@ -38693,7 +38689,7 @@
       </c>
       <c r="AX109" s="23"/>
     </row>
-    <row r="110" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A110" s="64">
         <v>32</v>
       </c>
@@ -39528,7 +39524,7 @@
       </c>
       <c r="AX118" s="23"/>
     </row>
-    <row r="119" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A119" s="22"/>
       <c r="N119" s="23"/>
       <c r="Q119" t="str">
@@ -39571,7 +39567,7 @@
       </c>
       <c r="AX119" s="23"/>
     </row>
-    <row r="120" spans="1:50" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A120" s="22"/>
       <c r="N120" s="23"/>
       <c r="Q120" t="str">
@@ -39766,8 +39762,8 @@
   <dimension ref="A1:L737"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A698" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I200" sqref="I200"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K403" sqref="K403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -43051,7 +43047,7 @@
         <v>2555.98</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
         <v>45143</v>
       </c>
@@ -43564,7 +43560,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141" s="3">
         <v>45166</v>
       </c>
@@ -43726,7 +43722,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
         <v>45177</v>
       </c>
@@ -43753,7 +43749,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
         <v>45177</v>
       </c>
@@ -43779,7 +43775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
         <v>45178</v>
       </c>
@@ -44643,7 +44639,7 @@
         <v>852.75</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A181" s="3">
         <v>45230</v>
       </c>
@@ -44994,7 +44990,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A194" s="3">
         <v>45247</v>
       </c>
@@ -45075,7 +45071,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A197" s="3">
         <v>45255</v>
       </c>
@@ -45102,7 +45098,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A198" s="3">
         <v>45255</v>
       </c>
@@ -45129,7 +45125,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A199" s="3">
         <v>45257</v>
       </c>
@@ -45156,7 +45152,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A200" s="3">
         <v>45259</v>
       </c>
@@ -45426,7 +45422,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A210" s="3">
         <v>45271</v>
       </c>
@@ -45562,7 +45558,7 @@
       </c>
       <c r="L214" s="2"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A215" s="3">
         <v>45280</v>
       </c>
@@ -45643,7 +45639,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A218" s="3">
         <v>45281</v>
       </c>
@@ -45859,7 +45855,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A226" s="3">
         <v>45296</v>
       </c>
@@ -45940,7 +45936,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A229" s="3">
         <v>45303</v>
       </c>
@@ -45967,7 +45963,7 @@
         <v>341.52</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A230" s="3">
         <v>45305</v>
       </c>
@@ -46021,7 +46017,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A232" s="3">
         <v>45306</v>
       </c>
@@ -46075,7 +46071,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A234" s="3">
         <v>45311</v>
       </c>
@@ -46480,7 +46476,7 @@
         <v>-6000</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A249" s="3">
         <v>45325</v>
       </c>
@@ -46507,7 +46503,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A250" s="3">
         <v>45325</v>
       </c>
@@ -46534,7 +46530,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A251" s="3">
         <v>45325</v>
       </c>
@@ -46588,7 +46584,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A253" s="3">
         <v>45332</v>
       </c>
@@ -46615,7 +46611,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A254" s="3">
         <v>45334</v>
       </c>
@@ -46696,7 +46692,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A257" s="3">
         <v>45341</v>
       </c>
@@ -46777,7 +46773,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A260" s="3">
         <v>45346</v>
       </c>
@@ -46804,7 +46800,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A261" s="3">
         <v>45350</v>
       </c>
@@ -46912,7 +46908,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A265" s="3">
         <v>45351</v>
       </c>
@@ -46939,7 +46935,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A266" s="3">
         <v>45351</v>
       </c>
@@ -46966,7 +46962,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A267" s="3">
         <v>45351</v>
       </c>
@@ -46993,7 +46989,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A268" s="3">
         <v>45351</v>
       </c>
@@ -47047,7 +47043,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A270" s="3">
         <v>45353</v>
       </c>
@@ -47074,7 +47070,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A271" s="3">
         <v>45359</v>
       </c>
@@ -47101,7 +47097,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A272" s="3">
         <v>45360</v>
       </c>
@@ -47155,7 +47151,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A274" s="3">
         <v>45366</v>
       </c>
@@ -47182,7 +47178,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A275" s="3">
         <v>45367</v>
       </c>
@@ -47209,7 +47205,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A276" s="3">
         <v>45369</v>
       </c>
@@ -47236,7 +47232,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A277" s="3">
         <v>45373</v>
       </c>
@@ -47263,7 +47259,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A278" s="3">
         <v>45373</v>
       </c>
@@ -47317,7 +47313,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A280" s="3">
         <v>45381</v>
       </c>
@@ -47398,7 +47394,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A283" s="3">
         <v>45382</v>
       </c>
@@ -47425,7 +47421,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A284" s="3">
         <v>45382</v>
       </c>
@@ -47452,7 +47448,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A285" s="3">
         <v>45382</v>
       </c>
@@ -47479,7 +47475,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A286" s="3">
         <v>45382</v>
       </c>
@@ -47533,7 +47529,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A288" s="3">
         <v>45390</v>
       </c>
@@ -47560,7 +47556,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A289" s="3">
         <v>45396</v>
       </c>
@@ -47587,7 +47583,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A290" s="3">
         <v>45399</v>
       </c>
@@ -47614,7 +47610,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A291" s="3">
         <v>45399</v>
       </c>
@@ -47669,7 +47665,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A293" s="3">
         <v>45403</v>
       </c>
@@ -47750,7 +47746,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A296" s="3">
         <v>45403</v>
       </c>
@@ -47777,7 +47773,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A297" s="3">
         <v>45409</v>
       </c>
@@ -48020,7 +48016,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A306" s="3">
         <v>45417</v>
       </c>
@@ -48047,7 +48043,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A307" s="3">
         <v>45420</v>
       </c>
@@ -48128,7 +48124,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A310" s="3">
         <v>45421</v>
       </c>
@@ -48155,7 +48151,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A311" s="3">
         <v>45422</v>
       </c>
@@ -48209,7 +48205,7 @@
         <v>-3659</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A313" s="3">
         <v>45425</v>
       </c>
@@ -48263,7 +48259,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A315" s="3">
         <v>45431</v>
       </c>
@@ -48344,7 +48340,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A318" s="3">
         <v>45434</v>
       </c>
@@ -48398,7 +48394,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A320" s="3">
         <v>45439</v>
       </c>
@@ -48479,7 +48475,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A323" s="3">
         <v>45443</v>
       </c>
@@ -48560,7 +48556,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A326" s="3">
         <v>45444</v>
       </c>
@@ -48587,7 +48583,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A327" s="3">
         <v>45446</v>
       </c>
@@ -48641,7 +48637,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A329" s="3">
         <v>45452</v>
       </c>
@@ -48723,7 +48719,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A332" s="3">
         <v>45459</v>
       </c>
@@ -48777,7 +48773,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A334" s="3">
         <v>45461</v>
       </c>
@@ -48831,7 +48827,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A336" s="3">
         <v>45465</v>
       </c>
@@ -48912,7 +48908,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A339" s="3">
         <v>45466</v>
       </c>
@@ -48966,7 +48962,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A341" s="3">
         <v>45473</v>
       </c>
@@ -49210,7 +49206,7 @@
         <v>930.9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A350" s="3">
         <v>45479</v>
       </c>
@@ -49237,7 +49233,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A351" s="3">
         <v>45481</v>
       </c>
@@ -49264,7 +49260,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A352" s="3">
         <v>45486</v>
       </c>
@@ -49291,7 +49287,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A353" s="3">
         <v>45486</v>
       </c>
@@ -49345,7 +49341,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A355" s="3">
         <v>45489</v>
       </c>
@@ -49372,7 +49368,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A356" s="3">
         <v>45495</v>
       </c>
@@ -49399,7 +49395,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A357" s="3">
         <v>45498</v>
       </c>
@@ -49480,7 +49476,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A360" s="3">
         <v>45500</v>
       </c>
@@ -49507,7 +49503,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A361" s="3">
         <v>45503</v>
       </c>
@@ -49534,7 +49530,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A362" s="3">
         <v>45503</v>
       </c>
@@ -49561,7 +49557,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A363" s="3">
         <v>45503</v>
       </c>
@@ -49588,7 +49584,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A364" s="3">
         <v>45503</v>
       </c>
@@ -49615,7 +49611,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A365" s="3">
         <v>45503</v>
       </c>
@@ -49642,7 +49638,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A366" s="3">
         <v>45503</v>
       </c>
@@ -49696,7 +49692,7 @@
         <v>1186.68</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A368" s="3">
         <v>45503</v>
       </c>
@@ -49723,7 +49719,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A369" s="3">
         <v>45508</v>
       </c>
@@ -49750,7 +49746,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A370" s="3">
         <v>45510</v>
       </c>
@@ -49777,7 +49773,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A371" s="3">
         <v>45516</v>
       </c>
@@ -49804,7 +49800,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A372" s="3">
         <v>45520</v>
       </c>
@@ -49858,7 +49854,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A374" s="3">
         <v>45522</v>
       </c>
@@ -49885,7 +49881,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A375" s="3">
         <v>45523</v>
       </c>
@@ -49912,7 +49908,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A376" s="3">
         <v>45525</v>
       </c>
@@ -49939,7 +49935,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A377" s="3">
         <v>45528</v>
       </c>
@@ -49993,7 +49989,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A379" s="3">
         <v>45535</v>
       </c>
@@ -50020,7 +50016,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A380" s="3">
         <v>45535</v>
       </c>
@@ -50074,7 +50070,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A382" s="3">
         <v>45535</v>
       </c>
@@ -50101,7 +50097,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A383" s="3">
         <v>45535</v>
       </c>
@@ -50182,7 +50178,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A386" s="3">
         <v>45535</v>
       </c>
@@ -50236,7 +50232,7 @@
         <v>1401.86</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A388" s="3">
         <v>45537</v>
       </c>
@@ -50289,7 +50285,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A390" s="3">
         <v>45542</v>
       </c>
@@ -50316,7 +50312,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A391" s="3">
         <v>45551</v>
       </c>
@@ -50370,7 +50366,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A393" s="3">
         <v>45552</v>
       </c>
@@ -50397,7 +50393,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A394" s="3">
         <v>45556</v>
       </c>
@@ -50424,7 +50420,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A395" s="3">
         <v>45558</v>
       </c>
@@ -50451,7 +50447,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A396" s="3">
         <v>45565</v>
       </c>
@@ -50478,7 +50474,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A397" s="3">
         <v>45565</v>
       </c>
@@ -50505,7 +50501,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A398" s="3">
         <v>45565</v>
       </c>
@@ -50532,7 +50528,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A399" s="3">
         <v>45565</v>
       </c>
@@ -50559,7 +50555,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A400" s="3">
         <v>45565</v>
       </c>
@@ -50586,7 +50582,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A401" s="3">
         <v>45565</v>
       </c>
@@ -50613,7 +50609,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A402" s="3">
         <v>45565</v>
       </c>
@@ -50667,7 +50663,7 @@
         <v>1298.33</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A404" s="3">
         <v>45565</v>
       </c>
@@ -50694,7 +50690,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A405" s="3">
         <v>45569</v>
       </c>
@@ -50721,7 +50717,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A406" s="3">
         <v>45571</v>
       </c>
@@ -50748,7 +50744,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A407" s="3">
         <v>45576</v>
       </c>
@@ -50776,7 +50772,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A408" s="3">
         <v>45580</v>
       </c>
@@ -50830,7 +50826,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A410" s="3">
         <v>45581</v>
       </c>
@@ -50857,7 +50853,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A411" s="3">
         <v>45586</v>
       </c>
@@ -50884,7 +50880,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A412" s="3">
         <v>45591</v>
       </c>
@@ -50911,7 +50907,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A413" s="3">
         <v>45594</v>
       </c>
@@ -50938,7 +50934,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A414" s="3">
         <v>45596</v>
       </c>
@@ -50965,7 +50961,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A415" s="3">
         <v>45596</v>
       </c>
@@ -50992,7 +50988,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A416" s="3">
         <v>45596</v>
       </c>
@@ -51020,7 +51016,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A417" s="3">
         <v>45596</v>
       </c>
@@ -51047,7 +51043,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A418" s="3">
         <v>45596</v>
       </c>
@@ -51074,7 +51070,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A419" s="3">
         <v>45596</v>
       </c>
@@ -51101,7 +51097,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A420" s="3">
         <v>45596</v>
       </c>
@@ -51128,7 +51124,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A421" s="3">
         <v>45596</v>
       </c>
@@ -51209,7 +51205,7 @@
         <v>15180</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A424" s="3">
         <v>45600</v>
       </c>
@@ -51236,7 +51232,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A425" s="3">
         <v>45600</v>
       </c>
@@ -51290,7 +51286,7 @@
         <v>14798</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A427" s="3">
         <v>45605</v>
       </c>
@@ -51317,7 +51313,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A428" s="3">
         <v>45608</v>
       </c>
@@ -51344,7 +51340,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A429" s="3">
         <v>45608</v>
       </c>
@@ -51371,7 +51367,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A430" s="3">
         <v>45610</v>
       </c>
@@ -51397,7 +51393,7 @@
         <v>2453.3000000000002</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A431" s="3">
         <v>45611</v>
       </c>
@@ -51424,7 +51420,7 @@
         <v>3300.94</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A432" s="3">
         <v>45612</v>
       </c>
@@ -51478,7 +51474,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A434" s="3">
         <v>45617</v>
       </c>
@@ -51505,7 +51501,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A435" s="3">
         <v>45626</v>
       </c>
@@ -51532,7 +51528,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A436" s="3">
         <v>45626</v>
       </c>
@@ -51559,7 +51555,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A437" s="3">
         <v>45626</v>
       </c>
@@ -51586,7 +51582,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A438" s="3">
         <v>45626</v>
       </c>
@@ -51640,7 +51636,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A440" s="3">
         <v>45626</v>
       </c>
@@ -51667,7 +51663,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A441" s="3">
         <v>45626</v>
       </c>
@@ -51694,7 +51690,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A442" s="3">
         <v>45626</v>
       </c>
@@ -51802,7 +51798,7 @@
         <v>1719.76</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A446" s="3">
         <v>45629</v>
       </c>
@@ -51829,7 +51825,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A447" s="3">
         <v>45629</v>
       </c>
@@ -51856,7 +51852,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A448" s="3">
         <v>45629</v>
       </c>
@@ -51883,7 +51879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A449" s="3">
         <v>45629</v>
       </c>
@@ -51910,7 +51906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A450" s="3">
         <v>45629</v>
       </c>
@@ -51937,7 +51933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A451" s="3">
         <v>45635</v>
       </c>
@@ -51991,7 +51987,7 @@
         <v>1192.44</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A453" s="3">
         <v>45642</v>
       </c>
@@ -52018,7 +52014,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A454" s="3">
         <v>45642</v>
       </c>
@@ -52045,7 +52041,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A455" s="3">
         <v>45643</v>
       </c>
@@ -52072,7 +52068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A456" s="3">
         <v>45644</v>
       </c>
@@ -52099,7 +52095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A457" s="3">
         <v>45644</v>
       </c>
@@ -52126,7 +52122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A458" s="3">
         <v>45644</v>
       </c>
@@ -52153,7 +52149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A459" s="3">
         <v>45646</v>
       </c>
@@ -52180,7 +52176,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A460" s="3">
         <v>45646</v>
       </c>
@@ -52208,7 +52204,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A461" s="3">
         <v>45649</v>
       </c>
@@ -52262,7 +52258,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A463" s="3">
         <v>45656</v>
       </c>
@@ -52288,7 +52284,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A464" s="3">
         <v>45657</v>
       </c>
@@ -52315,7 +52311,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A465" s="3">
         <v>45657</v>
       </c>
@@ -52342,7 +52338,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A466" s="3">
         <v>45657</v>
       </c>
@@ -52369,7 +52365,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A467" s="3">
         <v>45657</v>
       </c>
@@ -52396,7 +52392,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A468" s="3">
         <v>45657</v>
       </c>
@@ -52422,7 +52418,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A469" s="3">
         <v>45657</v>
       </c>
@@ -52449,7 +52445,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A470" s="3">
         <v>45657</v>
       </c>
@@ -52476,7 +52472,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A471" s="3">
         <v>45657</v>
       </c>
@@ -52503,7 +52499,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A472" s="3">
         <v>45657</v>
       </c>
@@ -52557,7 +52553,7 @@
         <v>1608.92</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A474" s="3">
         <v>45663</v>
       </c>
@@ -52638,7 +52634,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A477" s="3">
         <v>45671</v>
       </c>
@@ -52665,7 +52661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A478" s="3">
         <v>45671</v>
       </c>
@@ -52692,7 +52688,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A479" s="3">
         <v>45673</v>
       </c>
@@ -52719,7 +52715,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A480" s="3">
         <v>45673</v>
       </c>
@@ -52745,7 +52741,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A481" s="3">
         <v>45677</v>
       </c>
@@ -52799,7 +52795,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A483" s="3">
         <v>45678</v>
       </c>
@@ -52826,7 +52822,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A484" s="3">
         <v>45678</v>
       </c>
@@ -52880,7 +52876,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A486" s="3">
         <v>45682</v>
       </c>
@@ -52907,7 +52903,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A487" s="3">
         <v>45688</v>
       </c>
@@ -52934,7 +52930,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A488" s="3">
         <v>45688</v>
       </c>
@@ -52961,7 +52957,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A489" s="3">
         <v>45688</v>
       </c>
@@ -52988,7 +52984,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A490" s="3">
         <v>45688</v>
       </c>
@@ -53015,7 +53011,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A491" s="3">
         <v>45688</v>
       </c>
@@ -53042,7 +53038,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A492" s="3">
         <v>45688</v>
       </c>
@@ -53069,7 +53065,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A493" s="3">
         <v>45688</v>
       </c>
@@ -53096,7 +53092,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A494" s="3">
         <v>45688</v>
       </c>
@@ -53150,7 +53146,7 @@
         <v>1718.54</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A496" s="3">
         <v>45690</v>
       </c>
@@ -53177,7 +53173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A497" s="3">
         <v>45692</v>
       </c>
@@ -53204,7 +53200,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A498" s="3">
         <v>45692</v>
       </c>
@@ -53231,7 +53227,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A499" s="3">
         <v>45693</v>
       </c>
@@ -53258,7 +53254,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A500" s="3">
         <v>45693</v>
       </c>
@@ -53285,7 +53281,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A501" s="3">
         <v>45699</v>
       </c>
@@ -53312,7 +53308,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A502" s="3">
         <v>45702</v>
       </c>
@@ -53366,7 +53362,7 @@
         <v>518.99</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A504" s="3">
         <v>45705</v>
       </c>
@@ -53393,7 +53389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A505" s="3">
         <v>45705</v>
       </c>
@@ -53420,7 +53416,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A506" s="3">
         <v>45705</v>
       </c>
@@ -53447,7 +53443,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A507" s="3">
         <v>45705</v>
       </c>
@@ -53474,7 +53470,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A508" s="3">
         <v>45712</v>
       </c>
@@ -53501,7 +53497,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A509" s="3">
         <v>45715</v>
       </c>
@@ -53555,7 +53551,7 @@
         <v>1822.07</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A511" s="3">
         <v>45716</v>
       </c>
@@ -53582,7 +53578,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A512" s="3">
         <v>45716</v>
       </c>
@@ -53609,7 +53605,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A513" s="3">
         <v>45716</v>
       </c>
@@ -53636,7 +53632,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A514" s="3">
         <v>45716</v>
       </c>
@@ -53663,7 +53659,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A515" s="3">
         <v>45716</v>
       </c>
@@ -53690,7 +53686,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A516" s="3">
         <v>45716</v>
       </c>
@@ -53717,7 +53713,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A517" s="3">
         <v>45716</v>
       </c>
@@ -53744,7 +53740,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A518" s="3">
         <v>45716</v>
       </c>
@@ -53771,7 +53767,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A519" s="3">
         <v>45717</v>
       </c>
@@ -53825,7 +53821,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A521" s="3">
         <v>45726</v>
       </c>
@@ -53851,7 +53847,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A522" s="3">
         <v>45731</v>
       </c>
@@ -53878,7 +53874,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A523" s="3">
         <v>45731</v>
       </c>
@@ -53932,7 +53928,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A525" s="3">
         <v>45737</v>
       </c>
@@ -53959,7 +53955,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A526" s="3">
         <v>45739</v>
       </c>
@@ -53986,7 +53982,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A527" s="3">
         <v>45739</v>
       </c>
@@ -54067,7 +54063,7 @@
         <v>2110.33</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A530" s="3">
         <v>45747</v>
       </c>
@@ -54094,7 +54090,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A531" s="3">
         <v>45747</v>
       </c>
@@ -54121,7 +54117,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A532" s="3">
         <v>45747</v>
       </c>
@@ -54148,7 +54144,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A533" s="3">
         <v>45747</v>
       </c>
@@ -54175,7 +54171,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A534" s="3">
         <v>45747</v>
       </c>
@@ -54202,7 +54198,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A535" s="3">
         <v>45747</v>
       </c>
@@ -54229,7 +54225,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A536" s="3">
         <v>45747</v>
       </c>
@@ -54256,7 +54252,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A537" s="3">
         <v>45747</v>
       </c>
@@ -54284,7 +54280,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A538" s="3">
         <v>45748</v>
       </c>
@@ -54311,7 +54307,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A539" s="3">
         <v>45755</v>
       </c>
@@ -54338,7 +54334,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A540" s="3">
         <v>45760</v>
       </c>
@@ -54365,7 +54361,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A541" s="3">
         <v>45760</v>
       </c>
@@ -54392,7 +54388,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A542" s="3">
         <v>45763</v>
       </c>
@@ -54446,7 +54442,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A544" s="3">
         <v>45769</v>
       </c>
@@ -54473,7 +54469,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A545" s="3">
         <v>45769</v>
       </c>
@@ -54500,7 +54496,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A546" s="3">
         <v>45776</v>
       </c>
@@ -54554,7 +54550,7 @@
         <v>2041.31</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A548" s="3">
         <v>45777</v>
       </c>
@@ -54581,7 +54577,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A549" s="3">
         <v>45777</v>
       </c>
@@ -54608,7 +54604,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A550" s="3">
         <v>45777</v>
       </c>
@@ -54635,7 +54631,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A551" s="3">
         <v>45777</v>
       </c>
@@ -54662,7 +54658,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A552" s="3">
         <v>45777</v>
       </c>
@@ -54689,7 +54685,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A553" s="3">
         <v>45777</v>
       </c>
@@ -54716,7 +54712,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A554" s="3">
         <v>45777</v>
       </c>
@@ -54744,7 +54740,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A555" s="3">
         <v>45777</v>
       </c>
@@ -54771,7 +54767,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A556" s="3">
         <v>45780</v>
       </c>
@@ -54825,7 +54821,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A558" s="3">
         <v>45785</v>
       </c>
@@ -54852,7 +54848,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A559" s="3">
         <v>45786</v>
       </c>
@@ -54879,7 +54875,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A560" s="3">
         <v>45789</v>
       </c>
@@ -54906,7 +54902,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A561" s="3">
         <v>45793</v>
       </c>
@@ -54933,7 +54929,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A562" s="3">
         <v>45796</v>
       </c>
@@ -54960,7 +54956,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A563" s="3">
         <v>45799</v>
       </c>
@@ -54987,7 +54983,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A564" s="3">
         <v>45804</v>
       </c>
@@ -55014,7 +55010,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A565" s="3">
         <v>45804</v>
       </c>
@@ -55041,7 +55037,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A566" s="3">
         <v>45808</v>
       </c>
@@ -55068,7 +55064,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A567" s="3">
         <v>45808</v>
       </c>
@@ -55095,7 +55091,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A568" s="3">
         <v>45808</v>
       </c>
@@ -55122,7 +55118,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A569" s="3">
         <v>45808</v>
       </c>
@@ -55149,7 +55145,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A570" s="3">
         <v>45808</v>
       </c>
@@ -55176,7 +55172,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A571" s="3">
         <v>45808</v>
       </c>
@@ -55203,7 +55199,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A572" s="3">
         <v>45808</v>
       </c>
@@ -55257,7 +55253,7 @@
         <v>2313.3200000000002</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A574" s="3">
         <v>45808</v>
       </c>
@@ -55310,7 +55306,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A576" s="3">
         <v>45818</v>
       </c>
@@ -55337,7 +55333,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A577" s="3">
         <v>45824</v>
       </c>
@@ -55364,7 +55360,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A578" s="3">
         <v>45824</v>
       </c>
@@ -55391,7 +55387,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A579" s="3">
         <v>45829</v>
       </c>
@@ -55418,7 +55414,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A580" s="3">
         <v>45831</v>
       </c>
@@ -55445,7 +55441,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A581" s="3">
         <v>45832</v>
       </c>
@@ -55472,7 +55468,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A582" s="3">
         <v>45832</v>
       </c>
@@ -55499,7 +55495,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A583" s="3">
         <v>45832</v>
       </c>
@@ -55526,7 +55522,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A584" s="3">
         <v>45838</v>
       </c>
@@ -55554,7 +55550,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A585" s="3">
         <v>45838</v>
       </c>
@@ -55582,7 +55578,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A586" s="3">
         <v>45838</v>
       </c>
@@ -55610,7 +55606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A587" s="3">
         <v>45838</v>
       </c>
@@ -55665,7 +55661,7 @@
         <v>2875.64</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A589" s="3">
         <v>45838</v>
       </c>
@@ -55692,7 +55688,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A590" s="3">
         <v>45838</v>
       </c>
@@ -55719,7 +55715,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A591" s="3">
         <v>45838</v>
       </c>
@@ -55746,7 +55742,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A592" s="3">
         <v>45838</v>
       </c>
@@ -55773,7 +55769,7 @@
         <v>6980</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A593" s="3">
         <v>45838</v>
       </c>
@@ -55800,7 +55796,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A594" s="3">
         <v>45838</v>
       </c>
@@ -55827,7 +55823,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A595" s="3">
         <v>45838</v>
       </c>
@@ -55854,7 +55850,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A596" s="3">
         <v>45838</v>
       </c>
@@ -55881,7 +55877,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A597" s="3">
         <v>45838</v>
       </c>
@@ -55909,7 +55905,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A598" s="3">
         <v>45839</v>
       </c>
@@ -55936,7 +55932,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A599" s="3">
         <v>45846</v>
       </c>
@@ -55963,7 +55959,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A600" s="3">
         <v>45850</v>
       </c>
@@ -55990,7 +55986,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A601" s="3">
         <v>45853</v>
       </c>
@@ -56017,7 +56013,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A602" s="3">
         <v>45854</v>
       </c>
@@ -56044,7 +56040,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A603" s="3">
         <v>45854</v>
       </c>
@@ -56071,7 +56067,7 @@
         <v>569.99</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A604" s="3">
         <v>45854</v>
       </c>
@@ -56098,7 +56094,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A605" s="3">
         <v>45860</v>
       </c>
@@ -56125,7 +56121,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A606" s="3">
         <v>45860</v>
       </c>
@@ -56153,7 +56149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A607" s="3">
         <v>45861</v>
       </c>
@@ -56180,7 +56176,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A608" s="3">
         <v>45861</v>
       </c>
@@ -56207,7 +56203,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A609" s="3">
         <v>45862</v>
       </c>
@@ -56234,7 +56230,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A610" s="3">
         <v>45866</v>
       </c>
@@ -56261,7 +56257,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A611" s="3">
         <v>45867</v>
       </c>
@@ -56288,7 +56284,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A612" s="3">
         <v>45869</v>
       </c>
@@ -56315,7 +56311,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A613" s="3">
         <v>45869</v>
       </c>
@@ -56342,7 +56338,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A614" s="3">
         <v>45869</v>
       </c>
@@ -56396,7 +56392,7 @@
         <v>3155.78</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A616" s="3">
         <v>45869</v>
       </c>
@@ -56423,7 +56419,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A617" s="3">
         <v>45869</v>
       </c>
@@ -56450,7 +56446,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A618" s="3">
         <v>45869</v>
       </c>
@@ -56477,7 +56473,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A619" s="3">
         <v>45869</v>
       </c>
@@ -56504,7 +56500,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A620" s="3">
         <v>45869</v>
       </c>
@@ -56531,7 +56527,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A621" s="3">
         <v>45869</v>
       </c>
@@ -56558,7 +56554,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A622" s="3">
         <v>45869</v>
       </c>
@@ -56585,7 +56581,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A623" s="3">
         <v>45869</v>
       </c>
@@ -56612,7 +56608,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A624" s="3">
         <v>45869</v>
       </c>
@@ -56639,7 +56635,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A625" s="3">
         <v>45869</v>
       </c>
@@ -56666,7 +56662,7 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A626" s="3">
         <v>45869</v>
       </c>
@@ -56692,7 +56688,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A627" s="3">
         <v>45869</v>
       </c>
@@ -56719,7 +56715,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A628" s="3">
         <v>45869</v>
       </c>
@@ -56746,7 +56742,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A629" s="3">
         <v>45869</v>
       </c>
@@ -56775,7 +56771,7 @@
       <c r="K629" s="2"/>
       <c r="L629" s="2"/>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A630" s="3">
         <v>45876</v>
       </c>
@@ -56802,7 +56798,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A631" s="3">
         <v>45878</v>
       </c>
@@ -56829,7 +56825,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A632" s="3">
         <v>45878</v>
       </c>
@@ -56856,7 +56852,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A633" s="3">
         <v>45883</v>
       </c>
@@ -56883,7 +56879,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A634" s="3">
         <v>45883</v>
       </c>
@@ -56910,7 +56906,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A635" s="3">
         <v>45883</v>
       </c>
@@ -56937,7 +56933,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A636" s="3">
         <v>45883</v>
       </c>
@@ -56964,7 +56960,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A637" s="3">
         <v>45884</v>
       </c>
@@ -56991,7 +56987,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A638" s="3">
         <v>45887</v>
       </c>
@@ -57018,7 +57014,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A639" s="3">
         <v>45888</v>
       </c>
@@ -57045,7 +57041,7 @@
         <v>447.44</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A640" s="3">
         <v>45888</v>
       </c>
@@ -57072,7 +57068,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A641" s="3">
         <v>45896</v>
       </c>
@@ -57099,7 +57095,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A642" s="3">
         <v>45896</v>
       </c>
@@ -57126,7 +57122,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A643" s="3">
         <v>45899</v>
       </c>
@@ -57153,7 +57149,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A644" s="3">
         <v>45899</v>
       </c>
@@ -57207,7 +57203,7 @@
         <v>2619.86</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A646" s="3">
         <v>45900</v>
       </c>
@@ -57234,7 +57230,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A647" s="3">
         <v>45900</v>
       </c>
@@ -57261,7 +57257,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A648" s="3">
         <v>45900</v>
       </c>
@@ -57289,7 +57285,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A649" s="3">
         <v>45900</v>
       </c>
@@ -57316,7 +57312,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A650" s="3">
         <v>45900</v>
       </c>
@@ -57343,7 +57339,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A651" s="3">
         <v>45900</v>
       </c>
@@ -57370,7 +57366,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A652" s="3">
         <v>45900</v>
       </c>
@@ -57397,7 +57393,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A653" s="3">
         <v>45900</v>
       </c>
@@ -57424,7 +57420,7 @@
         <v>5580</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A654" s="3">
         <v>45903</v>
       </c>
@@ -57451,7 +57447,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A655" s="3">
         <v>45905</v>
       </c>
@@ -57478,7 +57474,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A656" s="3">
         <v>45905</v>
       </c>
@@ -57505,7 +57501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A657" s="3">
         <v>45905</v>
       </c>
@@ -57532,7 +57528,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A658" s="3">
         <v>45905</v>
       </c>
@@ -57559,7 +57555,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A659" s="3">
         <v>45909</v>
       </c>
@@ -57586,7 +57582,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A660" s="3">
         <v>45911</v>
       </c>
@@ -57613,7 +57609,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A661" s="3">
         <v>45915</v>
       </c>
@@ -57640,7 +57636,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A662" s="3">
         <v>45915</v>
       </c>
@@ -57667,7 +57663,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A663" s="3">
         <v>45915</v>
       </c>
@@ -57694,7 +57690,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A664" s="3">
         <v>45918</v>
       </c>
@@ -57721,7 +57717,7 @@
         <v>620.01</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A665" s="3">
         <v>45923</v>
       </c>
@@ -57748,7 +57744,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A666" s="3">
         <v>45924</v>
       </c>
@@ -57775,7 +57771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A667" s="3">
         <v>45924</v>
       </c>
@@ -57829,7 +57825,7 @@
         <v>3128.38</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A669" s="3">
         <v>45930</v>
       </c>
@@ -57856,7 +57852,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A670" s="3">
         <v>45930</v>
       </c>
@@ -57883,7 +57879,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A671" s="3">
         <v>45930</v>
       </c>
@@ -57911,7 +57907,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A672" s="3">
         <v>45930</v>
       </c>
@@ -57939,7 +57935,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A673" s="3">
         <v>45930</v>
       </c>
@@ -57966,7 +57962,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A674" s="3">
         <v>45930</v>
       </c>
@@ -57994,7 +57990,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A675" s="3">
         <v>45930</v>
       </c>
@@ -58021,7 +58017,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A676" s="3">
         <v>45930</v>
       </c>
@@ -58048,7 +58044,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A677" s="3">
         <v>45930</v>
       </c>
@@ -58075,7 +58071,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A678" s="3">
         <v>45930</v>
       </c>
@@ -58102,7 +58098,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A679" s="3">
         <v>45930</v>
       </c>
@@ -58129,7 +58125,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A680" s="3">
         <v>45937</v>
       </c>
@@ -58156,7 +58152,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A681" s="3">
         <v>45943</v>
       </c>
@@ -58183,7 +58179,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A682" s="3">
         <v>45943</v>
       </c>
@@ -58210,7 +58206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A683" s="3">
         <v>45944</v>
       </c>
@@ -58237,7 +58233,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A684" s="3">
         <v>45946</v>
       </c>
@@ -58291,7 +58287,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A686" s="3">
         <v>45950</v>
       </c>
@@ -58318,7 +58314,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A687" s="3">
         <v>45950</v>
       </c>
@@ -58345,7 +58341,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A688" s="3">
         <v>45951</v>
       </c>
@@ -58372,7 +58368,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A689" s="3">
         <v>45951</v>
       </c>
@@ -58399,7 +58395,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A690" s="3">
         <v>45958</v>
       </c>
@@ -58426,7 +58422,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A691" s="3">
         <v>45961</v>
       </c>
@@ -58453,7 +58449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A692" s="3">
         <v>45961</v>
       </c>
@@ -58480,7 +58476,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A693" s="3">
         <v>45961</v>
       </c>
@@ -58507,7 +58503,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A694" s="3">
         <v>45961</v>
       </c>
@@ -58534,7 +58530,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A695" s="3">
         <v>45961</v>
       </c>
@@ -58561,7 +58557,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A696" s="3">
         <v>45961</v>
       </c>
@@ -58588,7 +58584,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A697" s="3">
         <v>45961</v>
       </c>
@@ -58615,7 +58611,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A698" s="3">
         <v>45961</v>
       </c>
@@ -58642,7 +58638,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A699" s="3">
         <v>45961</v>
       </c>
@@ -58669,7 +58665,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A700" s="3">
         <v>45961</v>
       </c>
@@ -58723,7 +58719,7 @@
         <v>3295.85</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A702" s="3">
         <v>45961</v>
       </c>
@@ -58750,7 +58746,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A703" s="3">
         <v>45961</v>
       </c>
@@ -58777,7 +58773,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A704" s="3">
         <v>45964</v>
       </c>
@@ -58804,7 +58800,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A705" s="3">
         <v>45965</v>
       </c>
@@ -58831,7 +58827,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A706" s="3">
         <v>45966</v>
       </c>
@@ -58858,7 +58854,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A707" s="3">
         <v>45968</v>
       </c>
@@ -58885,7 +58881,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A708" s="3">
         <v>45969</v>
       </c>
@@ -58912,7 +58908,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A709" s="3">
         <v>45974</v>
       </c>
@@ -58939,7 +58935,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A710" s="3">
         <v>45974</v>
       </c>
@@ -58966,7 +58962,7 @@
         <v>660.01</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A711" s="3">
         <v>45975</v>
       </c>
@@ -58993,7 +58989,7 @@
         <v>2453.3000000000002</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A712" s="3">
         <v>45978</v>
       </c>
@@ -59020,7 +59016,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A713" s="3">
         <v>45982</v>
       </c>
@@ -59047,7 +59043,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A714" s="3">
         <v>45982</v>
       </c>
@@ -59074,7 +59070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A715" s="3">
         <v>45983</v>
       </c>
@@ -59101,7 +59097,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A716" s="3">
         <v>45986</v>
       </c>
@@ -59128,7 +59124,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A717" s="3">
         <v>45989</v>
       </c>
@@ -59182,7 +59178,7 @@
         <v>4998</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A719" s="3">
         <v>45991</v>
       </c>
@@ -59209,7 +59205,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A720" s="3">
         <v>45991</v>
       </c>
@@ -59236,7 +59232,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A721" s="3">
         <v>45991</v>
       </c>
@@ -59263,7 +59259,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A722" s="3">
         <v>45991</v>
       </c>
@@ -59290,7 +59286,7 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A723" s="3">
         <v>45991</v>
       </c>
@@ -59317,7 +59313,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A724" s="3">
         <v>45991</v>
       </c>
@@ -59344,7 +59340,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A725" s="3">
         <v>45991</v>
       </c>
@@ -59371,7 +59367,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A726" s="3">
         <v>45991</v>
       </c>
@@ -59398,7 +59394,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A727" s="3">
         <v>45991</v>
       </c>
@@ -59425,7 +59421,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A728" s="3">
         <v>45991</v>
       </c>
@@ -62090,7 +62086,7 @@
       <c r="D40"/>
       <c r="AJ40">
         <f>36912.33-'[1]Gastos Reales'!$AA$129</f>
-        <v>0</v>
+        <v>-148.47999999999593</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.4">
